--- a/portfolio performance.xlsx
+++ b/portfolio performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Desktop\investments_f\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46616D17-CBC1-499A-A6A5-FB3868697FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A142E0C-E2EB-4B28-BFA3-048E556D98E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4222634A-CA13-4635-AC99-CE16EEE8FAE4}"/>
   </bookViews>
@@ -172,7 +172,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -195,13 +195,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -231,19 +257,27 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="16" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -563,7 +597,7 @@
   <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -595,8 +629,8 @@
       <c r="F1" s="21">
         <v>44644</v>
       </c>
-      <c r="H1" s="35">
-        <v>44672</v>
+      <c r="H1" s="32">
+        <v>44676</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
@@ -606,24 +640,29 @@
       <c r="B2" s="10">
         <v>49.78</v>
       </c>
-      <c r="C2" s="34">
+      <c r="C2" s="35">
         <f>B2+B3</f>
         <v>97.78</v>
       </c>
       <c r="D2" s="10">
         <v>152.81</v>
       </c>
-      <c r="E2" s="34">
+      <c r="E2" s="35">
         <f>D2+D3</f>
         <v>292.56</v>
       </c>
       <c r="F2" s="10">
         <v>156.76</v>
       </c>
-      <c r="G2" s="30">
+      <c r="G2" s="33">
         <f>F3+F2</f>
         <v>305.47000000000003</v>
       </c>
+      <c r="H2" s="38">
+        <f>160.52+95.96</f>
+        <v>256.48</v>
+      </c>
+      <c r="I2" s="39"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
@@ -632,15 +671,20 @@
       <c r="B3" s="10">
         <v>48</v>
       </c>
-      <c r="C3" s="34"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="10">
         <v>139.75</v>
       </c>
-      <c r="E3" s="34"/>
+      <c r="E3" s="35"/>
       <c r="F3" s="10">
         <v>148.71</v>
       </c>
-      <c r="G3" s="30"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="38">
+        <f>152.3+91.04</f>
+        <v>243.34000000000003</v>
+      </c>
+      <c r="I3" s="39"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
@@ -663,7 +707,7 @@
       <c r="C5" s="3"/>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
-      <c r="F5" s="1"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -679,25 +723,28 @@
       <c r="B6" s="10">
         <v>46.55</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="35">
         <f>B6+B7</f>
         <v>89.47999999999999</v>
       </c>
       <c r="D6" s="10">
         <v>156.76</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="35">
         <v>305.47000000000003</v>
       </c>
       <c r="F6" s="7">
         <f>65.6+41.22+43.42+10.01</f>
         <v>160.25</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="1"/>
+      <c r="G6" s="36">
+        <f>F6+F7</f>
+        <v>312.28999999999996</v>
+      </c>
+      <c r="H6" s="14"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="K6" s="5"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="8"/>
@@ -717,15 +764,18 @@
       <c r="B7" s="7">
         <v>42.93</v>
       </c>
-      <c r="C7" s="34"/>
+      <c r="C7" s="35"/>
       <c r="D7" s="7">
         <f>E6-D6</f>
         <v>148.71000000000004</v>
       </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="1"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="7">
+        <f>29.04+50.36+1.13+11.63+59.88</f>
+        <v>152.04</v>
+      </c>
+      <c r="G7" s="37"/>
+      <c r="H7" s="14"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -751,7 +801,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="J8" s="5"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="17"/>
@@ -790,22 +840,25 @@
       <c r="V9" s="6"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="34" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="24">
         <f>(C6-C2)/C2</f>
         <v>-8.4884434444671822E-2</v>
       </c>
-      <c r="C10" s="31"/>
+      <c r="C10" s="29"/>
       <c r="D10" s="26">
         <f>(E6-E2)/E2</f>
         <v>4.4127700300793084E-2</v>
       </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="14"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="13">
+        <f>(G6-G2)/G2</f>
+        <v>2.2326251350377895E-2</v>
+      </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="H10" s="14"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -813,7 +866,7 @@
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A11" s="29"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="16">
         <f>C6-C2</f>
         <v>-8.3000000000000114</v>
@@ -823,10 +876,13 @@
         <f>E6-E2</f>
         <v>12.910000000000025</v>
       </c>
-      <c r="E11" s="33"/>
-      <c r="F11" s="14"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="25">
+        <f>G6-G2</f>
+        <v>6.8199999999999363</v>
+      </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="H11" s="14"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -862,9 +918,12 @@
         <v>0.51317641666939462</v>
       </c>
       <c r="E13" s="6"/>
-      <c r="F13" s="14"/>
+      <c r="F13" s="13">
+        <f>F6/G6</f>
+        <v>0.51314483332799643</v>
+      </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="H13" s="14"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -885,9 +944,12 @@
         <v>0.48682358333060538</v>
       </c>
       <c r="E14" s="6"/>
-      <c r="F14" s="14"/>
+      <c r="F14" s="13">
+        <f>1-F13</f>
+        <v>0.48685516667200357</v>
+      </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="H14" s="14"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -959,8 +1021,8 @@
         <v>8</v>
       </c>
       <c r="B19" s="25">
-        <f>B11+D11</f>
-        <v>4.6100000000000136</v>
+        <f>SUM(B11:Y11)</f>
+        <v>11.42999999999995</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="1"/>
@@ -975,15 +1037,28 @@
       <c r="M19" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
   </mergeCells>
   <conditionalFormatting sqref="C8 C6 C4 C2">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4 E2 E8 E6">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -995,7 +1070,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4 E2 E8 E6">
+  <conditionalFormatting sqref="C4 C2 C8 C6">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1007,7 +1082,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4 C2 C8 C6">
+  <conditionalFormatting sqref="G2:G3 G6:G7">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/portfolio performance.xlsx
+++ b/portfolio performance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Il mio Drive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Desktop\investments_f\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7F5C90-6895-47DB-9D23-5EDCCFAC8E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F80789-88BF-4B3E-9001-C190C69AB4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4222634A-CA13-4635-AC99-CE16EEE8FAE4}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{4222634A-CA13-4635-AC99-CE16EEE8FAE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly perfomance" sheetId="3" r:id="rId1"/>
@@ -46,7 +46,7 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Capitale + vendita apple + 1,15€ tesla</t>
+    Capitale + vendita apple azione regalo e dividendi vari</t>
       </text>
     </comment>
     <comment ref="D6" authorId="1" shapeId="0" xr:uid="{D7691988-A97B-4AEA-ABF6-1E071E14CF62}">
@@ -54,7 +54,7 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    somma eu e nasdaq + vari dividendi</t>
+    somma eu e nasdaq + tesla in ptf</t>
       </text>
     </comment>
   </commentList>
@@ -82,13 +82,13 @@
     <t>EU sold</t>
   </si>
   <si>
-    <t>US sold</t>
-  </si>
-  <si>
     <t>Monthly return</t>
   </si>
   <si>
     <t>Profit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US sold </t>
   </si>
 </sst>
 </file>
@@ -98,7 +98,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,12 +135,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -558,10 +552,10 @@
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="C6" dT="2022-05-24T23:17:18.40" personId="{59FAA9A2-E93C-44D0-837B-FAF8107166B0}" id="{5B27B67F-AA34-4409-8F84-50BDA894BA43}">
-    <text>Capitale + vendita apple + 1,15€ tesla</text>
+    <text>Capitale + vendita apple azione regalo e dividendi vari</text>
   </threadedComment>
   <threadedComment ref="D6" dT="2022-05-24T23:17:47.35" personId="{59FAA9A2-E93C-44D0-837B-FAF8107166B0}" id="{D7691988-A97B-4AEA-ABF6-1E071E14CF62}">
-    <text>somma eu e nasdaq + vari dividendi</text>
+    <text>somma eu e nasdaq + tesla in ptf</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -570,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA970ADF-8D0D-484A-B6E5-2A2C201284D1}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -579,7 +573,9 @@
     <col min="1" max="1" width="12" style="6" customWidth="1"/>
     <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.36328125" customWidth="1"/>
+    <col min="7" max="7" width="9.36328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.7265625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.6328125" customWidth="1"/>
     <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
@@ -602,13 +598,13 @@
         <v>5</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J1" s="16" t="s">
         <v>2</v>
@@ -618,7 +614,7 @@
       </c>
       <c r="L1" s="18"/>
       <c r="M1" s="19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -660,8 +656,8 @@
       </c>
       <c r="L2" s="9"/>
       <c r="M2" s="3">
-        <f>(G2-D2)+(G3-D3)+(G4-D4)+(G5-D5)</f>
-        <v>-19.32000000000005</v>
+        <f>(G2-D2)+(G3-D3)+(G4-D4)+(G5-D5)+(G6-D6)</f>
+        <v>-53.640000000000043</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -689,12 +685,12 @@
         <v>305.47000000000003</v>
       </c>
       <c r="H3" s="10">
-        <f t="shared" ref="H3:H5" si="0">(G3-D3)/D3</f>
+        <f>(G3-D3)/D3</f>
         <v>4.4127700300793084E-2</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="8">
-        <f t="shared" ref="J3:J5" si="1">E3/G3</f>
+        <f>E3/G3</f>
         <v>0.51317641666939462</v>
       </c>
       <c r="K3" s="7">
@@ -728,12 +724,12 @@
         <v>312.28999999999996</v>
       </c>
       <c r="H4" s="10">
-        <f t="shared" si="0"/>
+        <f>(G4-D4)/D4</f>
         <v>2.2326251350377895E-2</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="8">
-        <f t="shared" si="1"/>
+        <f>E4/G4</f>
         <v>0.51314483332799643</v>
       </c>
       <c r="K4" s="7">
@@ -769,12 +765,12 @@
         <v>469.07000000000005</v>
       </c>
       <c r="H5" s="10">
-        <f t="shared" si="0"/>
+        <f>(G5-D5)/D5</f>
         <v>-6.1522147973270373E-2</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="8">
-        <f t="shared" si="1"/>
+        <f>E5/G5</f>
         <v>0.53439785106700488</v>
       </c>
       <c r="K5" s="7">
@@ -791,27 +787,60 @@
         <v>250.67</v>
       </c>
       <c r="C6" s="2">
-        <f>218.4+8.65+1.15</f>
-        <v>228.20000000000002</v>
+        <f>218.4+8.65+1.96</f>
+        <v>229.01000000000002</v>
       </c>
       <c r="D6" s="2">
-        <v>480.83</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
+        <f>B6+C6</f>
+        <v>479.68</v>
+      </c>
+      <c r="E6" s="2">
+        <f>65.41+21.39+39.03+108.74</f>
+        <v>234.57</v>
+      </c>
+      <c r="F6" s="2">
+        <f>3.42+21.3+1.54+22.41+6.76+4.49+88.16+10.01+3.78+2.93+9.39+3.61+13.04+1.34+16.69+1.92</f>
+        <v>210.79</v>
+      </c>
+      <c r="G6" s="2">
+        <f>E6+F6</f>
+        <v>445.36</v>
+      </c>
+      <c r="H6" s="10">
+        <f>(G6-D6)/D6</f>
+        <v>-7.1547698465643753E-2</v>
+      </c>
+      <c r="J6" s="8">
+        <f>E6/G6</f>
+        <v>0.52669750314352426</v>
+      </c>
+      <c r="K6" s="7">
+        <f>F6/G6</f>
+        <v>0.47330249685647563</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="A7" s="5">
+        <v>44733</v>
+      </c>
+      <c r="B7" s="2">
+        <f>446.19*J6</f>
+        <v>235.00715892760908</v>
+      </c>
+      <c r="C7" s="2">
+        <f>446.19-B7</f>
+        <v>211.18284107239091</v>
+      </c>
+      <c r="D7" s="2">
+        <f>B7+C7</f>
+        <v>446.19</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B8" s="4"/>
@@ -868,43 +897,7 @@
       <c r="H13" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G2 D2">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3 D3">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4 G4">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5 G5">
+  <conditionalFormatting sqref="H2:H6">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -917,6 +910,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/portfolio performance.xlsx
+++ b/portfolio performance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Desktop\investments_f\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F80789-88BF-4B3E-9001-C190C69AB4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF9ACE7-574D-4FAB-8DFB-6DDAAF477442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{4222634A-CA13-4635-AC99-CE16EEE8FAE4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4222634A-CA13-4635-AC99-CE16EEE8FAE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly perfomance" sheetId="3" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>tot</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t xml:space="preserve">US sold </t>
+  </si>
+  <si>
+    <t>€ return</t>
   </si>
 </sst>
 </file>
@@ -152,13 +155,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -222,13 +225,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -562,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA970ADF-8D0D-484A-B6E5-2A2C201284D1}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -576,14 +581,15 @@
     <col min="4" max="5" width="9.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.36328125" customWidth="1"/>
     <col min="7" max="7" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6328125" customWidth="1"/>
-    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.36328125" customWidth="1"/>
+    <col min="9" max="9" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6328125" customWidth="1"/>
+    <col min="11" max="11" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="15" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="14" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="11"/>
       <c r="B1" s="12" t="s">
         <v>3</v>
@@ -603,21 +609,23 @@
       <c r="G1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="K1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="L1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="19" t="s">
+      <c r="N1" s="17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>44582</v>
       </c>
@@ -628,7 +636,7 @@
         <v>48</v>
       </c>
       <c r="D2" s="2">
-        <f>B2+C2</f>
+        <f t="shared" ref="D2:D8" si="0">B2+C2</f>
         <v>97.78</v>
       </c>
       <c r="E2" s="2">
@@ -641,26 +649,30 @@
         <f>E2+F2</f>
         <v>89.47999999999999</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="2">
+        <f>G2-D2</f>
+        <v>-8.3000000000000114</v>
+      </c>
+      <c r="I2" s="10">
         <f>(G2-D2)/D2</f>
         <v>-8.4884434444671822E-2</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="8">
+      <c r="J2" s="4"/>
+      <c r="K2" s="8">
         <f>E2/G2</f>
         <v>0.52022798390701841</v>
       </c>
-      <c r="K2" s="7">
+      <c r="L2" s="7">
         <f>F2/G2</f>
         <v>0.4797720160929817</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="3">
-        <f>(G2-D2)+(G3-D3)+(G4-D4)+(G5-D5)+(G6-D6)</f>
-        <v>-53.640000000000043</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M2" s="9"/>
+      <c r="N2" s="3">
+        <f>SUM(H:H)</f>
+        <v>-32.579999999999984</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>44616</v>
       </c>
@@ -671,7 +683,7 @@
         <v>139.75</v>
       </c>
       <c r="D3" s="2">
-        <f>B3+C3</f>
+        <f t="shared" si="0"/>
         <v>292.56</v>
       </c>
       <c r="E3" s="2">
@@ -684,22 +696,26 @@
         <f>E3+F3</f>
         <v>305.47000000000003</v>
       </c>
-      <c r="H3" s="10">
-        <f>(G3-D3)/D3</f>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H8" si="1">G3-D3</f>
+        <v>12.910000000000025</v>
+      </c>
+      <c r="I3" s="10">
+        <f t="shared" ref="I3:I7" si="2">(G3-D3)/D3</f>
         <v>4.4127700300793084E-2</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="8">
+      <c r="J3" s="4"/>
+      <c r="K3" s="8">
         <f>E3/G3</f>
         <v>0.51317641666939462</v>
       </c>
-      <c r="K3" s="7">
+      <c r="L3" s="7">
         <f>F3/G3</f>
         <v>0.48682358333060527</v>
       </c>
-      <c r="L3" s="9"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>44644</v>
       </c>
@@ -710,7 +726,7 @@
         <v>148.71</v>
       </c>
       <c r="D4" s="2">
-        <f>B4+C4</f>
+        <f t="shared" si="0"/>
         <v>305.47000000000003</v>
       </c>
       <c r="E4" s="2">
@@ -723,22 +739,26 @@
         <f>E4+F4</f>
         <v>312.28999999999996</v>
       </c>
-      <c r="H4" s="10">
-        <f>(G4-D4)/D4</f>
+      <c r="H4" s="2">
+        <f t="shared" si="1"/>
+        <v>6.8199999999999363</v>
+      </c>
+      <c r="I4" s="10">
+        <f t="shared" si="2"/>
         <v>2.2326251350377895E-2</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="8">
+      <c r="J4" s="4"/>
+      <c r="K4" s="8">
         <f>E4/G4</f>
         <v>0.51314483332799643</v>
       </c>
-      <c r="K4" s="7">
+      <c r="L4" s="7">
         <f>F4/G4</f>
         <v>0.48685516667200363</v>
       </c>
-      <c r="L4" s="9"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>44676</v>
       </c>
@@ -749,7 +769,7 @@
         <v>243.34</v>
       </c>
       <c r="D5" s="2">
-        <f>B5+C5</f>
+        <f t="shared" si="0"/>
         <v>499.82000000000005</v>
       </c>
       <c r="E5" s="2">
@@ -764,22 +784,26 @@
         <f>E5+F5</f>
         <v>469.07000000000005</v>
       </c>
-      <c r="H5" s="10">
-        <f>(G5-D5)/D5</f>
+      <c r="H5" s="2">
+        <f t="shared" si="1"/>
+        <v>-30.75</v>
+      </c>
+      <c r="I5" s="10">
+        <f t="shared" si="2"/>
         <v>-6.1522147973270373E-2</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="8">
+      <c r="J5" s="4"/>
+      <c r="K5" s="8">
         <f>E5/G5</f>
         <v>0.53439785106700488</v>
       </c>
-      <c r="K5" s="7">
+      <c r="L5" s="7">
         <f>F5/G5</f>
         <v>0.46560214893299512</v>
       </c>
-      <c r="L5" s="9"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>44706</v>
       </c>
@@ -791,7 +815,7 @@
         <v>229.01000000000002</v>
       </c>
       <c r="D6" s="2">
-        <f>B6+C6</f>
+        <f t="shared" si="0"/>
         <v>479.68</v>
       </c>
       <c r="E6" s="2">
@@ -806,25 +830,29 @@
         <f>E6+F6</f>
         <v>445.36</v>
       </c>
-      <c r="H6" s="10">
-        <f>(G6-D6)/D6</f>
+      <c r="H6" s="2">
+        <f t="shared" si="1"/>
+        <v>-34.319999999999993</v>
+      </c>
+      <c r="I6" s="10">
+        <f t="shared" si="2"/>
         <v>-7.1547698465643753E-2</v>
       </c>
-      <c r="J6" s="8">
+      <c r="K6" s="8">
         <f>E6/G6</f>
         <v>0.52669750314352426</v>
       </c>
-      <c r="K6" s="7">
+      <c r="L6" s="7">
         <f>F6/G6</f>
         <v>0.47330249685647563</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>44733</v>
       </c>
       <c r="B7" s="2">
-        <f>446.19*J6</f>
+        <f>446.19*K6</f>
         <v>235.00715892760908</v>
       </c>
       <c r="C7" s="2">
@@ -832,26 +860,63 @@
         <v>211.18284107239091</v>
       </c>
       <c r="D7" s="2">
-        <f>B7+C7</f>
+        <f t="shared" si="0"/>
         <v>446.19</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="E7" s="2">
+        <f>15.66+56.21+33.37+11.09+26.56+91.96</f>
+        <v>234.85000000000002</v>
+      </c>
+      <c r="F7" s="2">
+        <f>41.3+105.68+11.47+73.95</f>
+        <v>232.40000000000003</v>
+      </c>
+      <c r="G7" s="2">
+        <f>E7+F7</f>
+        <v>467.25000000000006</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="1"/>
+        <v>21.060000000000059</v>
+      </c>
+      <c r="I7" s="10">
+        <f t="shared" si="2"/>
+        <v>4.7199623478787193E-2</v>
+      </c>
+      <c r="K7" s="7">
+        <f>E7/G7</f>
+        <v>0.50262172284644191</v>
+      </c>
+      <c r="L7" s="7">
+        <f>F7/G7</f>
+        <v>0.49737827715355809</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>44769</v>
+      </c>
+      <c r="B8" s="2">
+        <f>468.5*K7</f>
+        <v>235.47827715355803</v>
+      </c>
+      <c r="C8" s="2">
+        <f>468.5*L7</f>
+        <v>233.02172284644197</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>468.5</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -859,8 +924,9 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -868,8 +934,9 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -877,8 +944,9 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -886,8 +954,9 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -895,10 +964,11 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H2:H6">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="I2:I7">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -909,6 +979,30 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I7">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H7">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/portfolio performance.xlsx
+++ b/portfolio performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Desktop\investments_f\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF9ACE7-574D-4FAB-8DFB-6DDAAF477442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA21C01-D017-421F-8FF2-EA326F0C0BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4222634A-CA13-4635-AC99-CE16EEE8FAE4}"/>
   </bookViews>
@@ -646,7 +646,7 @@
         <v>42.93</v>
       </c>
       <c r="G2" s="2">
-        <f>E2+F2</f>
+        <f t="shared" ref="G2:G7" si="1">E2+F2</f>
         <v>89.47999999999999</v>
       </c>
       <c r="H2" s="2">
@@ -659,11 +659,11 @@
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="8">
-        <f>E2/G2</f>
+        <f t="shared" ref="K2:K7" si="2">E2/G2</f>
         <v>0.52022798390701841</v>
       </c>
       <c r="L2" s="7">
-        <f>F2/G2</f>
+        <f t="shared" ref="L2:L7" si="3">F2/G2</f>
         <v>0.4797720160929817</v>
       </c>
       <c r="M2" s="9"/>
@@ -693,24 +693,24 @@
         <v>148.71</v>
       </c>
       <c r="G3" s="2">
-        <f>E3+F3</f>
+        <f t="shared" si="1"/>
         <v>305.47000000000003</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H8" si="1">G3-D3</f>
+        <f t="shared" ref="H3:H7" si="4">G3-D3</f>
         <v>12.910000000000025</v>
       </c>
       <c r="I3" s="10">
-        <f t="shared" ref="I3:I7" si="2">(G3-D3)/D3</f>
+        <f t="shared" ref="I3:I7" si="5">(G3-D3)/D3</f>
         <v>4.4127700300793084E-2</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="8">
-        <f>E3/G3</f>
+        <f t="shared" si="2"/>
         <v>0.51317641666939462</v>
       </c>
       <c r="L3" s="7">
-        <f>F3/G3</f>
+        <f t="shared" si="3"/>
         <v>0.48682358333060527</v>
       </c>
       <c r="M3" s="9"/>
@@ -736,24 +736,24 @@
         <v>152.04</v>
       </c>
       <c r="G4" s="2">
-        <f>E4+F4</f>
+        <f t="shared" si="1"/>
         <v>312.28999999999996</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6.8199999999999363</v>
       </c>
       <c r="I4" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.2326251350377895E-2</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="8">
-        <f>E4/G4</f>
+        <f t="shared" si="2"/>
         <v>0.51314483332799643</v>
       </c>
       <c r="L4" s="7">
-        <f>F4/G4</f>
+        <f t="shared" si="3"/>
         <v>0.48685516667200363</v>
       </c>
       <c r="M4" s="9"/>
@@ -781,24 +781,24 @@
         <v>218.40000000000003</v>
       </c>
       <c r="G5" s="2">
-        <f>E5+F5</f>
+        <f t="shared" si="1"/>
         <v>469.07000000000005</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-30.75</v>
       </c>
       <c r="I5" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-6.1522147973270373E-2</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="8">
-        <f>E5/G5</f>
+        <f t="shared" si="2"/>
         <v>0.53439785106700488</v>
       </c>
       <c r="L5" s="7">
-        <f>F5/G5</f>
+        <f t="shared" si="3"/>
         <v>0.46560214893299512</v>
       </c>
       <c r="M5" s="9"/>
@@ -827,23 +827,23 @@
         <v>210.79</v>
       </c>
       <c r="G6" s="2">
-        <f>E6+F6</f>
+        <f t="shared" si="1"/>
         <v>445.36</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-34.319999999999993</v>
       </c>
       <c r="I6" s="10">
+        <f t="shared" si="5"/>
+        <v>-7.1547698465643753E-2</v>
+      </c>
+      <c r="K6" s="8">
         <f t="shared" si="2"/>
-        <v>-7.1547698465643753E-2</v>
-      </c>
-      <c r="K6" s="8">
-        <f>E6/G6</f>
         <v>0.52669750314352426</v>
       </c>
       <c r="L6" s="7">
-        <f>F6/G6</f>
+        <f t="shared" si="3"/>
         <v>0.47330249685647563</v>
       </c>
     </row>
@@ -872,23 +872,23 @@
         <v>232.40000000000003</v>
       </c>
       <c r="G7" s="2">
-        <f>E7+F7</f>
+        <f t="shared" si="1"/>
         <v>467.25000000000006</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>21.060000000000059</v>
       </c>
       <c r="I7" s="10">
+        <f t="shared" si="5"/>
+        <v>4.7199623478787193E-2</v>
+      </c>
+      <c r="K7" s="7">
         <f t="shared" si="2"/>
-        <v>4.7199623478787193E-2</v>
-      </c>
-      <c r="K7" s="7">
-        <f>E7/G7</f>
         <v>0.50262172284644191</v>
       </c>
       <c r="L7" s="7">
-        <f>F7/G7</f>
+        <f t="shared" si="3"/>
         <v>0.49737827715355809</v>
       </c>
     </row>

--- a/portfolio performance.xlsx
+++ b/portfolio performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Desktop\investments_f\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA21C01-D017-421F-8FF2-EA326F0C0BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33089EE-E165-45E8-8120-483CE1B78297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4222634A-CA13-4635-AC99-CE16EEE8FAE4}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{4222634A-CA13-4635-AC99-CE16EEE8FAE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly perfomance" sheetId="3" r:id="rId1"/>
@@ -208,7 +208,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -234,6 +234,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -569,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA970ADF-8D0D-484A-B6E5-2A2C201284D1}">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -627,7 +628,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
-        <v>44582</v>
+        <v>44583</v>
       </c>
       <c r="B2" s="2">
         <v>49.78</v>
@@ -714,6 +715,10 @@
         <v>0.48682358333060527</v>
       </c>
       <c r="M3" s="9"/>
+      <c r="N3" s="21">
+        <f>(D8-D5)/D5</f>
+        <v>-6.2662558521067682E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="5">

--- a/portfolio performance.xlsx
+++ b/portfolio performance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Desktop\investments_f\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33089EE-E165-45E8-8120-483CE1B78297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C364305B-F6A4-45A1-B154-DBC663F6F8CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{4222634A-CA13-4635-AC99-CE16EEE8FAE4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4222634A-CA13-4635-AC99-CE16EEE8FAE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly perfomance" sheetId="3" r:id="rId1"/>
@@ -208,7 +208,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -234,7 +234,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -571,7 +570,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -637,7 +636,7 @@
         <v>48</v>
       </c>
       <c r="D2" s="2">
-        <f t="shared" ref="D2:D8" si="0">B2+C2</f>
+        <f t="shared" ref="D2:D9" si="0">B2+C2</f>
         <v>97.78</v>
       </c>
       <c r="E2" s="2">
@@ -647,7 +646,7 @@
         <v>42.93</v>
       </c>
       <c r="G2" s="2">
-        <f t="shared" ref="G2:G7" si="1">E2+F2</f>
+        <f t="shared" ref="G2:G8" si="1">E2+F2</f>
         <v>89.47999999999999</v>
       </c>
       <c r="H2" s="2">
@@ -660,17 +659,17 @@
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="8">
-        <f t="shared" ref="K2:K7" si="2">E2/G2</f>
+        <f t="shared" ref="K2:K8" si="2">E2/G2</f>
         <v>0.52022798390701841</v>
       </c>
       <c r="L2" s="7">
-        <f t="shared" ref="L2:L7" si="3">F2/G2</f>
+        <f t="shared" ref="L2:L8" si="3">F2/G2</f>
         <v>0.4797720160929817</v>
       </c>
       <c r="M2" s="9"/>
       <c r="N2" s="3">
         <f>SUM(H:H)</f>
-        <v>-32.579999999999984</v>
+        <v>-36.909999999999968</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
@@ -698,11 +697,11 @@
         <v>305.47000000000003</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H7" si="4">G3-D3</f>
+        <f t="shared" ref="H3:H8" si="4">G3-D3</f>
         <v>12.910000000000025</v>
       </c>
       <c r="I3" s="10">
-        <f t="shared" ref="I3:I7" si="5">(G3-D3)/D3</f>
+        <f t="shared" ref="I3:I8" si="5">(G3-D3)/D3</f>
         <v>4.4127700300793084E-2</v>
       </c>
       <c r="J3" s="4"/>
@@ -715,7 +714,7 @@
         <v>0.48682358333060527</v>
       </c>
       <c r="M3" s="9"/>
-      <c r="N3" s="21">
+      <c r="N3" s="7">
         <f>(D8-D5)/D5</f>
         <v>-6.2662558521067682E-2</v>
       </c>
@@ -913,23 +912,56 @@
         <f t="shared" si="0"/>
         <v>468.5</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
+      <c r="E8" s="2">
+        <f>92.56+26.35+120.37</f>
+        <v>239.28</v>
+      </c>
+      <c r="F8" s="2">
+        <f>48.8+103.8+3.47+63.74+5.08</f>
+        <v>224.89000000000001</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="1"/>
+        <v>464.17</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="4"/>
+        <v>-4.3299999999999841</v>
+      </c>
+      <c r="I8" s="10">
+        <f t="shared" si="5"/>
+        <v>-9.24226254002131E-3</v>
+      </c>
+      <c r="K8" s="7">
+        <f t="shared" si="2"/>
+        <v>0.51550078634982877</v>
+      </c>
+      <c r="L8" s="7">
+        <f t="shared" si="3"/>
+        <v>0.48449921365017129</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="A9" s="5">
+        <v>44801</v>
+      </c>
+      <c r="B9" s="2">
+        <v>239.28</v>
+      </c>
+      <c r="C9" s="2">
+        <v>224.89</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>464.16999999999996</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
@@ -972,8 +1004,8 @@
       <c r="I13" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I2:I7">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="I2:I8">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -984,26 +1016,26 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I7">
+  <conditionalFormatting sqref="I2:I8">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H8">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H7">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>

--- a/portfolio performance.xlsx
+++ b/portfolio performance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Desktop\investments_f\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C364305B-F6A4-45A1-B154-DBC663F6F8CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6B314B-F9BE-49C7-ACFC-B4D697F05CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4222634A-CA13-4635-AC99-CE16EEE8FAE4}"/>
   </bookViews>
@@ -208,7 +208,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -229,7 +229,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -570,7 +569,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -609,10 +608,10 @@
       <c r="G1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="19" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="15" t="s">
@@ -636,7 +635,7 @@
         <v>48</v>
       </c>
       <c r="D2" s="2">
-        <f t="shared" ref="D2:D9" si="0">B2+C2</f>
+        <f t="shared" ref="D2:D10" si="0">B2+C2</f>
         <v>97.78</v>
       </c>
       <c r="E2" s="2">
@@ -646,7 +645,7 @@
         <v>42.93</v>
       </c>
       <c r="G2" s="2">
-        <f t="shared" ref="G2:G8" si="1">E2+F2</f>
+        <f t="shared" ref="G2:G9" si="1">E2+F2</f>
         <v>89.47999999999999</v>
       </c>
       <c r="H2" s="2">
@@ -663,13 +662,13 @@
         <v>0.52022798390701841</v>
       </c>
       <c r="L2" s="7">
-        <f t="shared" ref="L2:L8" si="3">F2/G2</f>
+        <f t="shared" ref="L2:L9" si="3">F2/G2</f>
         <v>0.4797720160929817</v>
       </c>
       <c r="M2" s="9"/>
       <c r="N2" s="3">
         <f>SUM(H:H)</f>
-        <v>-36.909999999999968</v>
+        <v>-59.039999999999907</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
@@ -697,11 +696,11 @@
         <v>305.47000000000003</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H8" si="4">G3-D3</f>
+        <f t="shared" ref="H3:H9" si="4">G3-D3</f>
         <v>12.910000000000025</v>
       </c>
       <c r="I3" s="10">
-        <f t="shared" ref="I3:I8" si="5">(G3-D3)/D3</f>
+        <f t="shared" ref="I3:I9" si="5">(G3-D3)/D3</f>
         <v>4.4127700300793084E-2</v>
       </c>
       <c r="J3" s="4"/>
@@ -715,8 +714,8 @@
       </c>
       <c r="M3" s="9"/>
       <c r="N3" s="7">
-        <f>(D8-D5)/D5</f>
-        <v>-6.2662558521067682E-2</v>
+        <f>(G9-D5)/D5</f>
+        <v>-0.11560161658196956</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
@@ -933,7 +932,7 @@
         <v>-9.24226254002131E-3</v>
       </c>
       <c r="K8" s="7">
-        <f t="shared" si="2"/>
+        <f>E8/G8</f>
         <v>0.51550078634982877</v>
       </c>
       <c r="L8" s="7">
@@ -955,23 +954,56 @@
         <f t="shared" si="0"/>
         <v>464.16999999999996</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
+      <c r="E9" s="2">
+        <f>4.25+18.45+91.66+3.92+6.5+99.33</f>
+        <v>224.11</v>
+      </c>
+      <c r="F9" s="2">
+        <f>36.64+78.43+8.46+5.34+88.44+0.62</f>
+        <v>217.93</v>
+      </c>
+      <c r="G9" s="2">
+        <f>E9+F9</f>
+        <v>442.04</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="4"/>
+        <v>-22.129999999999939</v>
+      </c>
+      <c r="I9" s="10">
+        <f t="shared" si="5"/>
+        <v>-4.7676497834844865E-2</v>
+      </c>
+      <c r="K9" s="7">
+        <f>E9/G9</f>
+        <v>0.50699031761831514</v>
+      </c>
+      <c r="L9" s="7">
+        <f>F9/G9</f>
+        <v>0.49300968238168491</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="A10" s="5">
+        <v>44836</v>
+      </c>
+      <c r="B10" s="2">
+        <f>G9*K9</f>
+        <v>224.11000000000004</v>
+      </c>
+      <c r="C10" s="2">
+        <f>G9*L9</f>
+        <v>217.93</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>442.04000000000008</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B11" s="4"/>
@@ -1004,8 +1036,8 @@
       <c r="I13" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I2:I8">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="I2:I9">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1016,7 +1048,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I8">
+  <conditionalFormatting sqref="I2:I9">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -1028,7 +1060,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H8">
+  <conditionalFormatting sqref="H2:H9">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>

--- a/portfolio performance.xlsx
+++ b/portfolio performance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Desktop\investments_f\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6B314B-F9BE-49C7-ACFC-B4D697F05CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9133196-05A2-49AE-8617-1E213FDAFA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4222634A-CA13-4635-AC99-CE16EEE8FAE4}"/>
   </bookViews>
@@ -39,6 +39,7 @@
   <authors>
     <author>tc={5B27B67F-AA34-4409-8F84-50BDA894BA43}</author>
     <author>tc={D7691988-A97B-4AEA-ABF6-1E071E14CF62}</author>
+    <author>tc={93DC1C0E-EEB9-4F35-8EC3-96D3000E2C82}</author>
   </authors>
   <commentList>
     <comment ref="C6" authorId="0" shapeId="0" xr:uid="{5B27B67F-AA34-4409-8F84-50BDA894BA43}">
@@ -57,12 +58,20 @@
     somma eu e nasdaq + tesla in ptf</t>
       </text>
     </comment>
+    <comment ref="B11" authorId="2" shapeId="0" xr:uid="{93DC1C0E-EEB9-4F35-8EC3-96D3000E2C82}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    1,1€ dividend</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>tot</t>
   </si>
@@ -93,6 +102,12 @@
   <si>
     <t>€ return</t>
   </si>
+  <si>
+    <t>EU</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
 </sst>
 </file>
 
@@ -101,7 +116,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,8 +154,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,6 +183,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -208,7 +235,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -228,11 +255,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -561,15 +591,18 @@
   <threadedComment ref="D6" dT="2022-05-24T23:17:47.35" personId="{59FAA9A2-E93C-44D0-837B-FAF8107166B0}" id="{D7691988-A97B-4AEA-ABF6-1E071E14CF62}">
     <text>somma eu e nasdaq + tesla in ptf</text>
   </threadedComment>
+  <threadedComment ref="B11" dT="2022-11-07T21:32:08.95" personId="{59FAA9A2-E93C-44D0-837B-FAF8107166B0}" id="{93DC1C0E-EEB9-4F35-8EC3-96D3000E2C82}">
+    <text>1,1€ dividend</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA970ADF-8D0D-484A-B6E5-2A2C201284D1}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -585,10 +618,11 @@
     <col min="10" max="10" width="10.6328125" customWidth="1"/>
     <col min="11" max="11" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="14" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" s="14" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="11"/>
       <c r="B1" s="12" t="s">
         <v>3</v>
@@ -608,10 +642,10 @@
       <c r="G1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="15" t="s">
@@ -620,11 +654,20 @@
       <c r="L1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O1" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>44583</v>
       </c>
@@ -635,7 +678,7 @@
         <v>48</v>
       </c>
       <c r="D2" s="2">
-        <f t="shared" ref="D2:D10" si="0">B2+C2</f>
+        <f t="shared" ref="D2:D11" si="0">B2+C2</f>
         <v>97.78</v>
       </c>
       <c r="E2" s="2">
@@ -645,7 +688,7 @@
         <v>42.93</v>
       </c>
       <c r="G2" s="2">
-        <f t="shared" ref="G2:G9" si="1">E2+F2</f>
+        <f t="shared" ref="G2:G8" si="1">E2+F2</f>
         <v>89.47999999999999</v>
       </c>
       <c r="H2" s="2">
@@ -658,20 +701,29 @@
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="8">
-        <f t="shared" ref="K2:K8" si="2">E2/G2</f>
+        <f t="shared" ref="K2:K7" si="2">E2/G2</f>
         <v>0.52022798390701841</v>
       </c>
       <c r="L2" s="7">
-        <f t="shared" ref="L2:L9" si="3">F2/G2</f>
+        <f t="shared" ref="L2:L8" si="3">F2/G2</f>
         <v>0.4797720160929817</v>
       </c>
       <c r="M2" s="9"/>
-      <c r="N2" s="3">
+      <c r="N2" s="9"/>
+      <c r="O2" s="2">
+        <f>SUM(E2:E10)-SUM(B2:B10)</f>
+        <v>-23.195436081167372</v>
+      </c>
+      <c r="P2" s="2">
+        <f>SUM(F2:F10)-SUM(C2:C10)</f>
+        <v>-25.164563918832982</v>
+      </c>
+      <c r="Q2" s="3">
         <f>SUM(H:H)</f>
-        <v>-59.039999999999907</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+        <v>-48.360000000000014</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>44616</v>
       </c>
@@ -700,7 +752,7 @@
         <v>12.910000000000025</v>
       </c>
       <c r="I3" s="10">
-        <f t="shared" ref="I3:I9" si="5">(G3-D3)/D3</f>
+        <f t="shared" ref="I3:I10" si="5">(G3-D3)/D3</f>
         <v>4.4127700300793084E-2</v>
       </c>
       <c r="J3" s="4"/>
@@ -713,12 +765,15 @@
         <v>0.48682358333060527</v>
       </c>
       <c r="M3" s="9"/>
-      <c r="N3" s="7">
-        <f>(G9-D5)/D5</f>
-        <v>-0.11560161658196956</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N3" s="9"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="7">
+        <f>(G10-D5)/D5</f>
+        <v>-9.423392421271673E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>44644</v>
       </c>
@@ -760,8 +815,9 @@
         <v>0.48685516667200363</v>
       </c>
       <c r="M4" s="9"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>44676</v>
       </c>
@@ -805,8 +861,9 @@
         <v>0.46560214893299512</v>
       </c>
       <c r="M5" s="9"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>44706</v>
       </c>
@@ -850,7 +907,7 @@
         <v>0.47330249685647563</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>44733</v>
       </c>
@@ -895,7 +952,7 @@
         <v>0.49737827715355809</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>44769</v>
       </c>
@@ -940,7 +997,7 @@
         <v>0.48449921365017129</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>44801</v>
       </c>
@@ -983,7 +1040,7 @@
         <v>0.49300968238168491</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>44836</v>
       </c>
@@ -999,23 +1056,60 @@
         <f t="shared" si="0"/>
         <v>442.04000000000008</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E10" s="2">
+        <f>122.55+37.85+69.74</f>
+        <v>230.14</v>
+      </c>
+      <c r="F10" s="2">
+        <f>14.02+55.25+9.8+32.11+8.18+5.64+97.58</f>
+        <v>222.57999999999998</v>
+      </c>
+      <c r="G10" s="2">
+        <f>E10+F10</f>
+        <v>452.71999999999997</v>
+      </c>
+      <c r="H10" s="2">
+        <f>G10-D10</f>
+        <v>10.679999999999893</v>
+      </c>
+      <c r="I10" s="10">
+        <f t="shared" si="5"/>
+        <v>2.4160709438059657E-2</v>
+      </c>
+      <c r="K10" s="7">
+        <f>E10/G10</f>
+        <v>0.50834953171938502</v>
+      </c>
+      <c r="L10" s="7">
+        <f>F10/G10</f>
+        <v>0.49165046828061493</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>44872</v>
+      </c>
+      <c r="B11" s="2">
+        <f>G10*K10+1.1</f>
+        <v>231.23999999999995</v>
+      </c>
+      <c r="C11" s="2">
+        <f>G10*L10</f>
+        <v>222.57999999999998</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>453.81999999999994</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1025,7 +1119,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1036,7 +1130,7 @@
       <c r="I13" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I2:I9">
+  <conditionalFormatting sqref="I2:I10">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -1048,7 +1142,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I9">
+  <conditionalFormatting sqref="I2:I10">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -1060,7 +1154,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H9">
+  <conditionalFormatting sqref="H2:H10">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>

--- a/portfolio performance.xlsx
+++ b/portfolio performance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Desktop\investments_f\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9133196-05A2-49AE-8617-1E213FDAFA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15EA956-5083-4A91-ADE7-F119243E4316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4222634A-CA13-4635-AC99-CE16EEE8FAE4}"/>
   </bookViews>
@@ -116,7 +116,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,12 +153,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -235,7 +229,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -262,7 +256,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -602,7 +595,7 @@
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -711,16 +704,16 @@
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
       <c r="O2" s="2">
-        <f>SUM(E2:E10)-SUM(B2:B10)</f>
-        <v>-23.195436081167372</v>
+        <f>SUM(E2:E11)-SUM(B2:B11)</f>
+        <v>-23.865436081167445</v>
       </c>
       <c r="P2" s="2">
-        <f>SUM(F2:F10)-SUM(C2:C10)</f>
-        <v>-25.164563918832982</v>
+        <f>SUM(F2:F11)-SUM(C2:C11)</f>
+        <v>-38.124563918833019</v>
       </c>
       <c r="Q2" s="3">
         <f>SUM(H:H)</f>
-        <v>-48.360000000000014</v>
+        <v>-61.989999999999952</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
@@ -752,7 +745,7 @@
         <v>12.910000000000025</v>
       </c>
       <c r="I3" s="10">
-        <f t="shared" ref="I3:I10" si="5">(G3-D3)/D3</f>
+        <f t="shared" ref="I3:I11" si="5">(G3-D3)/D3</f>
         <v>4.4127700300793084E-2</v>
       </c>
       <c r="J3" s="4"/>
@@ -766,11 +759,9 @@
       </c>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
       <c r="Q3" s="7">
-        <f>(G10-D5)/D5</f>
-        <v>-9.423392421271673E-2</v>
+        <f>(G11-D5)/D5</f>
+        <v>-0.11930294906166229</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
@@ -1101,23 +1092,57 @@
         <f t="shared" si="0"/>
         <v>453.81999999999994</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
+      <c r="E11" s="2">
+        <f>6.36+57.62+70.06+96.53</f>
+        <v>230.57</v>
+      </c>
+      <c r="F11" s="2">
+        <f>14.09+86.68+25.23+8.26+12.67+62.69</f>
+        <v>209.62</v>
+      </c>
+      <c r="G11" s="2">
+        <f>E11+F11</f>
+        <v>440.19</v>
+      </c>
+      <c r="H11" s="2">
+        <f>G11-D11</f>
+        <v>-13.629999999999939</v>
+      </c>
+      <c r="I11" s="10">
+        <f t="shared" si="5"/>
+        <v>-3.0033934158917502E-2</v>
+      </c>
+      <c r="K11" s="7">
+        <f>E11/G11</f>
+        <v>0.52379654240214446</v>
+      </c>
+      <c r="L11" s="7">
+        <f>F11/G11</f>
+        <v>0.47620345759785548</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="A12" s="5">
+        <v>44905</v>
+      </c>
+      <c r="B12" s="2">
+        <f>230.57+0.44</f>
+        <v>231.01</v>
+      </c>
+      <c r="C12" s="2">
+        <v>209.62</v>
+      </c>
+      <c r="D12" s="2">
+        <f>B12+C12</f>
+        <v>440.63</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B13" s="4"/>
@@ -1130,7 +1155,7 @@
       <c r="I13" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I2:I10">
+  <conditionalFormatting sqref="I2:I11">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -1142,7 +1167,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I10">
+  <conditionalFormatting sqref="I2:I11">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -1154,7 +1179,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H10">
+  <conditionalFormatting sqref="H2:H11">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>

--- a/portfolio performance.xlsx
+++ b/portfolio performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Desktop\investments_f\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15EA956-5083-4A91-ADE7-F119243E4316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD25106-7093-447F-8219-B71774BB29BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4222634A-CA13-4635-AC99-CE16EEE8FAE4}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{4222634A-CA13-4635-AC99-CE16EEE8FAE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly perfomance" sheetId="3" r:id="rId1"/>
@@ -94,9 +94,6 @@
     <t>Monthly return</t>
   </si>
   <si>
-    <t>Profit</t>
-  </si>
-  <si>
     <t xml:space="preserve">US sold </t>
   </si>
   <si>
@@ -107,6 +104,9 @@
   </si>
   <si>
     <t>US</t>
+  </si>
+  <si>
+    <t>Profit/Loss</t>
   </si>
 </sst>
 </file>
@@ -241,21 +241,35 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -592,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA970ADF-8D0D-484A-B6E5-2A2C201284D1}">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -615,52 +629,45 @@
     <col min="16" max="16" width="9.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="14" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="11"/>
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:16" s="14" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="18"/>
+      <c r="B1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="21" t="s">
+      <c r="N1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+    </row>
+    <row r="2" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>44583</v>
       </c>
@@ -702,21 +709,17 @@
         <v>0.4797720160929817</v>
       </c>
       <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="2">
-        <f>SUM(E2:E11)-SUM(B2:B11)</f>
-        <v>-23.865436081167445</v>
-      </c>
-      <c r="P2" s="2">
-        <f>SUM(F2:F11)-SUM(C2:C11)</f>
-        <v>-38.124563918833019</v>
-      </c>
-      <c r="Q2" s="3">
-        <f>SUM(H:H)</f>
-        <v>-61.989999999999952</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="N2" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>44616</v>
       </c>
@@ -745,7 +748,7 @@
         <v>12.910000000000025</v>
       </c>
       <c r="I3" s="10">
-        <f t="shared" ref="I3:I11" si="5">(G3-D3)/D3</f>
+        <f t="shared" ref="I3:I12" si="5">(G3-D3)/D3</f>
         <v>4.4127700300793084E-2</v>
       </c>
       <c r="J3" s="4"/>
@@ -758,13 +761,20 @@
         <v>0.48682358333060527</v>
       </c>
       <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="Q3" s="7">
-        <f>(G11-D5)/D5</f>
-        <v>-0.11930294906166229</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="N3" s="2">
+        <f>SUM(E2:E12)-SUM(B2:B12)</f>
+        <v>-19.745436081167554</v>
+      </c>
+      <c r="O3" s="2">
+        <f>SUM(F2:F12)-SUM(C2:C12)</f>
+        <v>-52.304563918833082</v>
+      </c>
+      <c r="P3" s="3">
+        <f>SUM(H:H)</f>
+        <v>-72.049999999999955</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>44644</v>
       </c>
@@ -806,9 +816,12 @@
         <v>0.48685516667200363</v>
       </c>
       <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="P4" s="7">
+        <f>(G12-D5)/D5</f>
+        <v>-0.13854987795606427</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>44676</v>
       </c>
@@ -854,7 +867,7 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>44706</v>
       </c>
@@ -898,7 +911,7 @@
         <v>0.47330249685647563</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>44733</v>
       </c>
@@ -943,7 +956,7 @@
         <v>0.49737827715355809</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>44769</v>
       </c>
@@ -988,7 +1001,7 @@
         <v>0.48449921365017129</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>44801</v>
       </c>
@@ -1031,7 +1044,7 @@
         <v>0.49300968238168491</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>44836</v>
       </c>
@@ -1076,7 +1089,7 @@
         <v>0.49165046828061493</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>44872</v>
       </c>
@@ -1121,7 +1134,7 @@
         <v>0.47620345759785548</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>44905</v>
       </c>
@@ -1136,26 +1149,67 @@
         <f>B12+C12</f>
         <v>440.63</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="E12" s="2">
+        <f>97.72+32.5+16.14+88.77</f>
+        <v>235.13</v>
+      </c>
+      <c r="F12" s="2">
+        <f>57.74+30.08+107.62</f>
+        <v>195.44</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" ref="G12:G13" si="6">E12+F12</f>
+        <v>430.57</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" ref="H12:H13" si="7">G12-D12</f>
+        <v>-10.060000000000002</v>
+      </c>
+      <c r="I12" s="10">
+        <f t="shared" si="5"/>
+        <v>-2.2830946599187531E-2</v>
+      </c>
+      <c r="K12" s="7">
+        <f>E12/G12</f>
+        <v>0.54609006665582827</v>
+      </c>
+      <c r="L12" s="7">
+        <f>F12/G12</f>
+        <v>0.45390993334417168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>44941</v>
+      </c>
+      <c r="B13" s="2">
+        <f>D13*K12</f>
+        <v>235.75800357665418</v>
+      </c>
+      <c r="C13" s="2">
+        <f>D13*L12</f>
+        <v>195.96199642334579</v>
+      </c>
+      <c r="D13" s="2">
+        <f>G12+1.15</f>
+        <v>431.71999999999997</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C15" s="16"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I2:I11">
+  <mergeCells count="1">
+    <mergeCell ref="N1:P1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I2:I12">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -1167,7 +1221,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I11">
+  <conditionalFormatting sqref="I2:I12">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -1179,7 +1233,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H11">
+  <conditionalFormatting sqref="H2:H13">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>

--- a/portfolio performance.xlsx
+++ b/portfolio performance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Desktop\investments_f\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD25106-7093-447F-8219-B71774BB29BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EE4ACA-4880-48C9-8682-1A8E34236681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{4222634A-CA13-4635-AC99-CE16EEE8FAE4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4222634A-CA13-4635-AC99-CE16EEE8FAE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly perfomance" sheetId="3" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>tot</t>
   </si>
@@ -82,24 +82,6 @@
     <t>EU weight</t>
   </si>
   <si>
-    <t>EU invested</t>
-  </si>
-  <si>
-    <t>US invested</t>
-  </si>
-  <si>
-    <t>EU sold</t>
-  </si>
-  <si>
-    <t>Monthly return</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US sold </t>
-  </si>
-  <si>
-    <t>€ return</t>
-  </si>
-  <si>
     <t>EU</t>
   </si>
   <si>
@@ -107,6 +89,33 @@
   </si>
   <si>
     <t>Profit/Loss</t>
+  </si>
+  <si>
+    <t>EU INV</t>
+  </si>
+  <si>
+    <t>US INV</t>
+  </si>
+  <si>
+    <t>EU SOLD</t>
+  </si>
+  <si>
+    <t>US SOLD</t>
+  </si>
+  <si>
+    <t>EU MARGIN</t>
+  </si>
+  <si>
+    <t>US MARGIN</t>
+  </si>
+  <si>
+    <t>MONTHLY % RET</t>
+  </si>
+  <si>
+    <t>€ RET</t>
+  </si>
+  <si>
+    <t>RESULT</t>
   </si>
 </sst>
 </file>
@@ -116,7 +125,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,8 +163,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,19 +181,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -229,7 +234,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -241,33 +246,27 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -606,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA970ADF-8D0D-484A-B6E5-2A2C201284D1}">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -619,55 +618,63 @@
     <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.36328125" customWidth="1"/>
-    <col min="7" max="7" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.36328125" customWidth="1"/>
-    <col min="9" max="9" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6328125" customWidth="1"/>
-    <col min="11" max="11" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7265625" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" customWidth="1"/>
+    <col min="9" max="9" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.36328125" customWidth="1"/>
+    <col min="11" max="11" width="18.08984375" customWidth="1"/>
+    <col min="12" max="12" width="10.6328125" customWidth="1"/>
+    <col min="13" max="13" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="14" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="18"/>
-      <c r="B1" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="11" t="s">
+    <row r="1" spans="1:18" s="12" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="15"/>
+      <c r="B1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
     </row>
-    <row r="2" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>44583</v>
       </c>
@@ -687,39 +694,47 @@
       <c r="F2" s="1">
         <v>42.93</v>
       </c>
-      <c r="G2" s="2">
-        <f t="shared" ref="G2:G8" si="1">E2+F2</f>
+      <c r="G2" s="1">
+        <f>E2-B2</f>
+        <v>-3.230000000000004</v>
+      </c>
+      <c r="H2" s="1">
+        <f>F2-C2</f>
+        <v>-5.07</v>
+      </c>
+      <c r="I2" s="2">
+        <f t="shared" ref="I2:I8" si="1">E2+F2</f>
         <v>89.47999999999999</v>
       </c>
-      <c r="H2" s="2">
-        <f>G2-D2</f>
+      <c r="J2" s="2">
+        <f>I2-D2</f>
         <v>-8.3000000000000114</v>
       </c>
-      <c r="I2" s="10">
-        <f>(G2-D2)/D2</f>
+      <c r="K2" s="10">
+        <f t="shared" ref="K2:K13" si="2">(I2-D2)/D2</f>
         <v>-8.4884434444671822E-2</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="8">
-        <f t="shared" ref="K2:K7" si="2">E2/G2</f>
+      <c r="L2" s="4"/>
+      <c r="M2" s="8">
+        <f t="shared" ref="M2:M7" si="3">E2/I2</f>
         <v>0.52022798390701841</v>
       </c>
-      <c r="L2" s="7">
-        <f t="shared" ref="L2:L8" si="3">F2/G2</f>
+      <c r="N2" s="7">
+        <f t="shared" ref="N2:N8" si="4">F2/I2</f>
         <v>0.4797720160929817</v>
       </c>
-      <c r="M2" s="9"/>
-      <c r="N2" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" s="17" t="s">
+      <c r="O2" s="9"/>
+      <c r="P2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>44616</v>
       </c>
@@ -739,42 +754,50 @@
       <c r="F3" s="2">
         <v>148.71</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G13" si="5">E3-B3</f>
+        <v>3.9499999999999886</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H13" si="6">F3-C3</f>
+        <v>8.960000000000008</v>
+      </c>
+      <c r="I3" s="2">
         <f t="shared" si="1"/>
         <v>305.47000000000003</v>
       </c>
-      <c r="H3" s="2">
-        <f t="shared" ref="H3:H9" si="4">G3-D3</f>
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:J9" si="7">I3-D3</f>
         <v>12.910000000000025</v>
       </c>
-      <c r="I3" s="10">
-        <f t="shared" ref="I3:I12" si="5">(G3-D3)/D3</f>
+      <c r="K3" s="10">
+        <f t="shared" si="2"/>
         <v>4.4127700300793084E-2</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="8">
-        <f t="shared" si="2"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="8">
+        <f t="shared" si="3"/>
         <v>0.51317641666939462</v>
       </c>
-      <c r="L3" s="7">
-        <f t="shared" si="3"/>
+      <c r="N3" s="7">
+        <f t="shared" si="4"/>
         <v>0.48682358333060527</v>
       </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="2">
-        <f>SUM(E2:E12)-SUM(B2:B12)</f>
-        <v>-19.745436081167554</v>
-      </c>
-      <c r="O3" s="2">
-        <f>SUM(F2:F12)-SUM(C2:C12)</f>
-        <v>-52.304563918833082</v>
-      </c>
-      <c r="P3" s="3">
-        <f>SUM(H:H)</f>
-        <v>-72.049999999999955</v>
+      <c r="O3" s="9"/>
+      <c r="P3" s="2">
+        <f>SUM(E2:E13)-SUM(B2:B13)</f>
+        <v>-12.723439657821473</v>
+      </c>
+      <c r="Q3" s="2">
+        <f>SUM(F2:F13)-SUM(C2:C13)</f>
+        <v>-68.966560342178582</v>
+      </c>
+      <c r="R3" s="3">
+        <f>SUM(J:J)</f>
+        <v>-81.689999999999884</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>44644</v>
       </c>
@@ -794,34 +817,42 @@
       <c r="F4" s="2">
         <v>152.04</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
+        <f t="shared" si="5"/>
+        <v>3.4900000000000091</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="6"/>
+        <v>3.3299999999999841</v>
+      </c>
+      <c r="I4" s="2">
         <f t="shared" si="1"/>
         <v>312.28999999999996</v>
       </c>
-      <c r="H4" s="2">
+      <c r="J4" s="2">
+        <f t="shared" si="7"/>
+        <v>6.8199999999999363</v>
+      </c>
+      <c r="K4" s="10">
+        <f t="shared" si="2"/>
+        <v>2.2326251350377895E-2</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="8">
+        <f t="shared" si="3"/>
+        <v>0.51314483332799643</v>
+      </c>
+      <c r="N4" s="7">
         <f t="shared" si="4"/>
-        <v>6.8199999999999363</v>
-      </c>
-      <c r="I4" s="10">
-        <f t="shared" si="5"/>
-        <v>2.2326251350377895E-2</v>
-      </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="8">
-        <f t="shared" si="2"/>
-        <v>0.51314483332799643</v>
-      </c>
-      <c r="L4" s="7">
-        <f t="shared" si="3"/>
         <v>0.48685516667200363</v>
       </c>
-      <c r="M4" s="9"/>
-      <c r="P4" s="7">
-        <f>(G12-D5)/D5</f>
-        <v>-0.13854987795606427</v>
+      <c r="O4" s="9"/>
+      <c r="R4" s="7">
+        <f>(I13-D5)/D5</f>
+        <v>-0.1555359929574647</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>44676</v>
       </c>
@@ -843,31 +874,39 @@
         <f>12.64+29.87+142.15+33.74</f>
         <v>218.40000000000003</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
+        <f t="shared" si="5"/>
+        <v>-5.8100000000000023</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="6"/>
+        <v>-24.939999999999969</v>
+      </c>
+      <c r="I5" s="2">
         <f t="shared" si="1"/>
         <v>469.07000000000005</v>
       </c>
-      <c r="H5" s="2">
+      <c r="J5" s="2">
+        <f t="shared" si="7"/>
+        <v>-30.75</v>
+      </c>
+      <c r="K5" s="10">
+        <f t="shared" si="2"/>
+        <v>-6.1522147973270373E-2</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="8">
+        <f t="shared" si="3"/>
+        <v>0.53439785106700488</v>
+      </c>
+      <c r="N5" s="7">
         <f t="shared" si="4"/>
-        <v>-30.75</v>
-      </c>
-      <c r="I5" s="10">
-        <f t="shared" si="5"/>
-        <v>-6.1522147973270373E-2</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="8">
-        <f t="shared" si="2"/>
-        <v>0.53439785106700488</v>
-      </c>
-      <c r="L5" s="7">
-        <f t="shared" si="3"/>
         <v>0.46560214893299512</v>
       </c>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>44706</v>
       </c>
@@ -890,33 +929,41 @@
         <f>3.42+21.3+1.54+22.41+6.76+4.49+88.16+10.01+3.78+2.93+9.39+3.61+13.04+1.34+16.69+1.92</f>
         <v>210.79</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
+        <f t="shared" si="5"/>
+        <v>-16.099999999999994</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="6"/>
+        <v>-18.220000000000027</v>
+      </c>
+      <c r="I6" s="2">
         <f t="shared" si="1"/>
         <v>445.36</v>
       </c>
-      <c r="H6" s="2">
+      <c r="J6" s="2">
+        <f t="shared" si="7"/>
+        <v>-34.319999999999993</v>
+      </c>
+      <c r="K6" s="10">
+        <f t="shared" si="2"/>
+        <v>-7.1547698465643753E-2</v>
+      </c>
+      <c r="M6" s="8">
+        <f t="shared" si="3"/>
+        <v>0.52669750314352426</v>
+      </c>
+      <c r="N6" s="7">
         <f t="shared" si="4"/>
-        <v>-34.319999999999993</v>
-      </c>
-      <c r="I6" s="10">
-        <f t="shared" si="5"/>
-        <v>-7.1547698465643753E-2</v>
-      </c>
-      <c r="K6" s="8">
-        <f t="shared" si="2"/>
-        <v>0.52669750314352426</v>
-      </c>
-      <c r="L6" s="7">
-        <f t="shared" si="3"/>
         <v>0.47330249685647563</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>44733</v>
       </c>
       <c r="B7" s="2">
-        <f>446.19*K6</f>
+        <f>446.19*M6</f>
         <v>235.00715892760908</v>
       </c>
       <c r="C7" s="2">
@@ -935,37 +982,45 @@
         <f>41.3+105.68+11.47+73.95</f>
         <v>232.40000000000003</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.15715892760906058</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="6"/>
+        <v>21.21715892760912</v>
+      </c>
+      <c r="I7" s="2">
         <f t="shared" si="1"/>
         <v>467.25000000000006</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
+        <f t="shared" si="7"/>
+        <v>21.060000000000059</v>
+      </c>
+      <c r="K7" s="10">
+        <f t="shared" si="2"/>
+        <v>4.7199623478787193E-2</v>
+      </c>
+      <c r="M7" s="7">
+        <f t="shared" si="3"/>
+        <v>0.50262172284644191</v>
+      </c>
+      <c r="N7" s="7">
         <f t="shared" si="4"/>
-        <v>21.060000000000059</v>
-      </c>
-      <c r="I7" s="10">
-        <f t="shared" si="5"/>
-        <v>4.7199623478787193E-2</v>
-      </c>
-      <c r="K7" s="7">
-        <f t="shared" si="2"/>
-        <v>0.50262172284644191</v>
-      </c>
-      <c r="L7" s="7">
-        <f t="shared" si="3"/>
         <v>0.49737827715355809</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>44769</v>
       </c>
       <c r="B8" s="2">
-        <f>468.5*K7</f>
+        <f>468.5*M7</f>
         <v>235.47827715355803</v>
       </c>
       <c r="C8" s="2">
-        <f>468.5*L7</f>
+        <f>468.5*N7</f>
         <v>233.02172284644197</v>
       </c>
       <c r="D8" s="2">
@@ -980,28 +1035,36 @@
         <f>48.8+103.8+3.47+63.74+5.08</f>
         <v>224.89000000000001</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
+        <f t="shared" si="5"/>
+        <v>3.8017228464419759</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="6"/>
+        <v>-8.13172284644196</v>
+      </c>
+      <c r="I8" s="2">
         <f t="shared" si="1"/>
         <v>464.17</v>
       </c>
-      <c r="H8" s="2">
+      <c r="J8" s="2">
+        <f t="shared" si="7"/>
+        <v>-4.3299999999999841</v>
+      </c>
+      <c r="K8" s="10">
+        <f t="shared" si="2"/>
+        <v>-9.24226254002131E-3</v>
+      </c>
+      <c r="M8" s="7">
+        <f t="shared" ref="M8:M13" si="8">E8/I8</f>
+        <v>0.51550078634982877</v>
+      </c>
+      <c r="N8" s="7">
         <f t="shared" si="4"/>
-        <v>-4.3299999999999841</v>
-      </c>
-      <c r="I8" s="10">
-        <f t="shared" si="5"/>
-        <v>-9.24226254002131E-3</v>
-      </c>
-      <c r="K8" s="7">
-        <f>E8/G8</f>
-        <v>0.51550078634982877</v>
-      </c>
-      <c r="L8" s="7">
-        <f t="shared" si="3"/>
         <v>0.48449921365017129</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>44801</v>
       </c>
@@ -1023,37 +1086,45 @@
         <f>36.64+78.43+8.46+5.34+88.44+0.62</f>
         <v>217.93</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
+        <f t="shared" si="5"/>
+        <v>-15.169999999999987</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="6"/>
+        <v>-6.9599999999999795</v>
+      </c>
+      <c r="I9" s="2">
         <f>E9+F9</f>
         <v>442.04</v>
       </c>
-      <c r="H9" s="2">
-        <f t="shared" si="4"/>
+      <c r="J9" s="2">
+        <f t="shared" si="7"/>
         <v>-22.129999999999939</v>
       </c>
-      <c r="I9" s="10">
-        <f t="shared" si="5"/>
+      <c r="K9" s="10">
+        <f t="shared" si="2"/>
         <v>-4.7676497834844865E-2</v>
       </c>
-      <c r="K9" s="7">
-        <f>E9/G9</f>
+      <c r="M9" s="7">
+        <f t="shared" si="8"/>
         <v>0.50699031761831514</v>
       </c>
-      <c r="L9" s="7">
-        <f>F9/G9</f>
+      <c r="N9" s="7">
+        <f>F9/I9</f>
         <v>0.49300968238168491</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>44836</v>
       </c>
       <c r="B10" s="2">
-        <f>G9*K9</f>
+        <f>I9*M9</f>
         <v>224.11000000000004</v>
       </c>
       <c r="C10" s="2">
-        <f>G9*L9</f>
+        <f>I9*N9</f>
         <v>217.93</v>
       </c>
       <c r="D10" s="2">
@@ -1068,37 +1139,45 @@
         <f>14.02+55.25+9.8+32.11+8.18+5.64+97.58</f>
         <v>222.57999999999998</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
+        <f t="shared" si="5"/>
+        <v>6.0299999999999443</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="6"/>
+        <v>4.6499999999999773</v>
+      </c>
+      <c r="I10" s="2">
         <f>E10+F10</f>
         <v>452.71999999999997</v>
       </c>
-      <c r="H10" s="2">
-        <f>G10-D10</f>
+      <c r="J10" s="2">
+        <f>I10-D10</f>
         <v>10.679999999999893</v>
       </c>
-      <c r="I10" s="10">
-        <f t="shared" si="5"/>
+      <c r="K10" s="10">
+        <f t="shared" si="2"/>
         <v>2.4160709438059657E-2</v>
       </c>
-      <c r="K10" s="7">
-        <f>E10/G10</f>
+      <c r="M10" s="7">
+        <f t="shared" si="8"/>
         <v>0.50834953171938502</v>
       </c>
-      <c r="L10" s="7">
-        <f>F10/G10</f>
+      <c r="N10" s="7">
+        <f>F10/I10</f>
         <v>0.49165046828061493</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>44872</v>
       </c>
       <c r="B11" s="2">
-        <f>G10*K10+1.1</f>
+        <f>I10*M10+1.1</f>
         <v>231.23999999999995</v>
       </c>
       <c r="C11" s="2">
-        <f>G10*L10</f>
+        <f>I10*N10</f>
         <v>222.57999999999998</v>
       </c>
       <c r="D11" s="2">
@@ -1113,28 +1192,36 @@
         <f>14.09+86.68+25.23+8.26+12.67+62.69</f>
         <v>209.62</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.66999999999995907</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="6"/>
+        <v>-12.95999999999998</v>
+      </c>
+      <c r="I11" s="2">
         <f>E11+F11</f>
         <v>440.19</v>
       </c>
-      <c r="H11" s="2">
-        <f>G11-D11</f>
+      <c r="J11" s="2">
+        <f>I11-D11</f>
         <v>-13.629999999999939</v>
       </c>
-      <c r="I11" s="10">
-        <f t="shared" si="5"/>
+      <c r="K11" s="10">
+        <f t="shared" si="2"/>
         <v>-3.0033934158917502E-2</v>
       </c>
-      <c r="K11" s="7">
-        <f>E11/G11</f>
+      <c r="M11" s="7">
+        <f t="shared" si="8"/>
         <v>0.52379654240214446</v>
       </c>
-      <c r="L11" s="7">
-        <f>F11/G11</f>
+      <c r="N11" s="7">
+        <f>F11/I11</f>
         <v>0.47620345759785548</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>44905</v>
       </c>
@@ -1157,60 +1244,121 @@
         <f>57.74+30.08+107.62</f>
         <v>195.44</v>
       </c>
-      <c r="G12" s="2">
-        <f t="shared" ref="G12:G13" si="6">E12+F12</f>
+      <c r="G12" s="1">
+        <f t="shared" si="5"/>
+        <v>4.1200000000000045</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="6"/>
+        <v>-14.180000000000007</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" ref="I12:I13" si="9">E12+F12</f>
         <v>430.57</v>
       </c>
-      <c r="H12" s="2">
-        <f t="shared" ref="H12:H13" si="7">G12-D12</f>
+      <c r="J12" s="2">
+        <f t="shared" ref="J12:J13" si="10">I12-D12</f>
         <v>-10.060000000000002</v>
       </c>
-      <c r="I12" s="10">
-        <f t="shared" si="5"/>
+      <c r="K12" s="10">
+        <f t="shared" si="2"/>
         <v>-2.2830946599187531E-2</v>
       </c>
-      <c r="K12" s="7">
-        <f>E12/G12</f>
+      <c r="M12" s="7">
+        <f t="shared" si="8"/>
         <v>0.54609006665582827</v>
       </c>
-      <c r="L12" s="7">
-        <f>F12/G12</f>
+      <c r="N12" s="7">
+        <f>F12/I12</f>
         <v>0.45390993334417168</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>44941</v>
       </c>
       <c r="B13" s="2">
-        <f>D13*K12</f>
+        <f>D13*M12</f>
         <v>235.75800357665418</v>
       </c>
       <c r="C13" s="2">
-        <f>D13*L12</f>
+        <f>D13*N12</f>
         <v>195.96199642334579</v>
       </c>
       <c r="D13" s="2">
-        <f>G12+1.15</f>
+        <f>I12+1.15</f>
         <v>431.71999999999997</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
+      <c r="E13" s="2">
+        <f>165.11+20.81+8.37+48.49</f>
+        <v>242.78000000000003</v>
+      </c>
+      <c r="F13" s="2">
+        <f>17.32+72.65+32.11+11.97+3.39+24.43+17.43</f>
+        <v>179.3</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="5"/>
+        <v>7.0219964233458541</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="6"/>
+        <v>-16.661996423345784</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="9"/>
+        <v>422.08000000000004</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="10"/>
+        <v>-9.6399999999999295</v>
+      </c>
+      <c r="K13" s="10">
+        <f t="shared" si="2"/>
+        <v>-2.2329287501157997E-2</v>
+      </c>
+      <c r="M13" s="7">
+        <f t="shared" si="8"/>
+        <v>0.57519901440485222</v>
+      </c>
+      <c r="N13" s="7">
+        <f>F13/I13</f>
+        <v>0.42480098559514784</v>
+      </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="C15" s="16"/>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <v>44995</v>
+      </c>
+      <c r="B14" s="2">
+        <f>423.13*M13</f>
+        <v>243.38395896512512</v>
+      </c>
+      <c r="C14" s="2">
+        <f>423.13*N13</f>
+        <v>179.74604103487491</v>
+      </c>
+      <c r="D14" s="3">
+        <f>B14+C14</f>
+        <v>423.13</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="C15" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="P1:R1"/>
   </mergeCells>
-  <conditionalFormatting sqref="I2:I12">
-    <cfRule type="colorScale" priority="7">
+  <conditionalFormatting sqref="K2:K13">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1221,8 +1369,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I12">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="K2:K13">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J13">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G13">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1234,7 +1406,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H13">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/portfolio performance.xlsx
+++ b/portfolio performance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Desktop\investments_f\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EE4ACA-4880-48C9-8682-1A8E34236681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C2B03D-069B-4787-8160-D3E2E1784737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4222634A-CA13-4635-AC99-CE16EEE8FAE4}"/>
   </bookViews>
@@ -241,7 +241,6 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -250,11 +249,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -267,6 +262,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -608,20 +610,20 @@
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.36328125" customWidth="1"/>
-    <col min="7" max="7" width="12.7265625" customWidth="1"/>
-    <col min="8" max="8" width="14.453125" customWidth="1"/>
-    <col min="9" max="9" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.36328125" customWidth="1"/>
+    <col min="1" max="1" width="12" style="18" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.36328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.7265625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.36328125" style="4" customWidth="1"/>
     <col min="11" max="11" width="18.08984375" customWidth="1"/>
     <col min="12" max="12" width="10.6328125" customWidth="1"/>
     <col min="13" max="13" width="10.453125" bestFit="1" customWidth="1"/>
@@ -630,49 +632,49 @@
     <col min="18" max="18" width="9.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="12" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="15"/>
-      <c r="B1" s="18" t="s">
+    <row r="1" spans="1:18" s="11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="17"/>
+      <c r="B1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="P1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
     </row>
     <row r="2" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
@@ -710,27 +712,27 @@
         <f>I2-D2</f>
         <v>-8.3000000000000114</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="9">
         <f t="shared" ref="K2:K13" si="2">(I2-D2)/D2</f>
         <v>-8.4884434444671822E-2</v>
       </c>
       <c r="L2" s="4"/>
-      <c r="M2" s="8">
+      <c r="M2" s="7">
         <f t="shared" ref="M2:M7" si="3">E2/I2</f>
         <v>0.52022798390701841</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="6">
         <f t="shared" ref="N2:N8" si="4">F2/I2</f>
         <v>0.4797720160929817</v>
       </c>
-      <c r="O2" s="9"/>
-      <c r="P2" s="14" t="s">
+      <c r="O2" s="8"/>
+      <c r="P2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="Q2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="14" t="s">
+      <c r="R2" s="12" t="s">
         <v>0</v>
       </c>
     </row>
@@ -770,20 +772,20 @@
         <f t="shared" ref="J3:J9" si="7">I3-D3</f>
         <v>12.910000000000025</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="9">
         <f t="shared" si="2"/>
         <v>4.4127700300793084E-2</v>
       </c>
       <c r="L3" s="4"/>
-      <c r="M3" s="8">
+      <c r="M3" s="7">
         <f t="shared" si="3"/>
         <v>0.51317641666939462</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="6">
         <f t="shared" si="4"/>
         <v>0.48682358333060527</v>
       </c>
-      <c r="O3" s="9"/>
+      <c r="O3" s="8"/>
       <c r="P3" s="2">
         <f>SUM(E2:E13)-SUM(B2:B13)</f>
         <v>-12.723439657821473</v>
@@ -794,7 +796,7 @@
       </c>
       <c r="R3" s="3">
         <f>SUM(J:J)</f>
-        <v>-81.689999999999884</v>
+        <v>-78.959999999999923</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
@@ -833,21 +835,21 @@
         <f t="shared" si="7"/>
         <v>6.8199999999999363</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="9">
         <f t="shared" si="2"/>
         <v>2.2326251350377895E-2</v>
       </c>
       <c r="L4" s="4"/>
-      <c r="M4" s="8">
+      <c r="M4" s="7">
         <f t="shared" si="3"/>
         <v>0.51314483332799643</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="6">
         <f t="shared" si="4"/>
         <v>0.48685516667200363</v>
       </c>
-      <c r="O4" s="9"/>
-      <c r="R4" s="7">
+      <c r="O4" s="8"/>
+      <c r="R4" s="6">
         <f>(I13-D5)/D5</f>
         <v>-0.1555359929574647</v>
       </c>
@@ -890,21 +892,21 @@
         <f t="shared" si="7"/>
         <v>-30.75</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="9">
         <f t="shared" si="2"/>
         <v>-6.1522147973270373E-2</v>
       </c>
       <c r="L5" s="4"/>
-      <c r="M5" s="8">
+      <c r="M5" s="7">
         <f t="shared" si="3"/>
         <v>0.53439785106700488</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="6">
         <f t="shared" si="4"/>
         <v>0.46560214893299512</v>
       </c>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
@@ -945,15 +947,15 @@
         <f t="shared" si="7"/>
         <v>-34.319999999999993</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="9">
         <f t="shared" si="2"/>
         <v>-7.1547698465643753E-2</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="7">
         <f t="shared" si="3"/>
         <v>0.52669750314352426</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="6">
         <f t="shared" si="4"/>
         <v>0.47330249685647563</v>
       </c>
@@ -998,15 +1000,15 @@
         <f t="shared" si="7"/>
         <v>21.060000000000059</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="9">
         <f t="shared" si="2"/>
         <v>4.7199623478787193E-2</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="6">
         <f t="shared" si="3"/>
         <v>0.50262172284644191</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="6">
         <f t="shared" si="4"/>
         <v>0.49737827715355809</v>
       </c>
@@ -1051,15 +1053,15 @@
         <f t="shared" si="7"/>
         <v>-4.3299999999999841</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="9">
         <f t="shared" si="2"/>
         <v>-9.24226254002131E-3</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="6">
         <f t="shared" ref="M8:M13" si="8">E8/I8</f>
         <v>0.51550078634982877</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="6">
         <f t="shared" si="4"/>
         <v>0.48449921365017129</v>
       </c>
@@ -1102,15 +1104,15 @@
         <f t="shared" si="7"/>
         <v>-22.129999999999939</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="9">
         <f t="shared" si="2"/>
         <v>-4.7676497834844865E-2</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="6">
         <f t="shared" si="8"/>
         <v>0.50699031761831514</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="6">
         <f>F9/I9</f>
         <v>0.49300968238168491</v>
       </c>
@@ -1155,15 +1157,15 @@
         <f>I10-D10</f>
         <v>10.679999999999893</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="9">
         <f t="shared" si="2"/>
         <v>2.4160709438059657E-2</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="6">
         <f t="shared" si="8"/>
         <v>0.50834953171938502</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="6">
         <f>F10/I10</f>
         <v>0.49165046828061493</v>
       </c>
@@ -1208,15 +1210,15 @@
         <f>I11-D11</f>
         <v>-13.629999999999939</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="9">
         <f t="shared" si="2"/>
         <v>-3.0033934158917502E-2</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="6">
         <f t="shared" si="8"/>
         <v>0.52379654240214446</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="6">
         <f>F11/I11</f>
         <v>0.47620345759785548</v>
       </c>
@@ -1253,22 +1255,22 @@
         <v>-14.180000000000007</v>
       </c>
       <c r="I12" s="2">
-        <f t="shared" ref="I12:I13" si="9">E12+F12</f>
+        <f t="shared" ref="I12:I14" si="9">E12+F12</f>
         <v>430.57</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" ref="J12:J13" si="10">I12-D12</f>
+        <f t="shared" ref="J12:J14" si="10">I12-D12</f>
         <v>-10.060000000000002</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="9">
         <f t="shared" si="2"/>
         <v>-2.2830946599187531E-2</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="6">
         <f t="shared" si="8"/>
         <v>0.54609006665582827</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12" s="6">
         <f>F12/I12</f>
         <v>0.45390993334417168</v>
       </c>
@@ -1313,15 +1315,15 @@
         <f t="shared" si="10"/>
         <v>-9.6399999999999295</v>
       </c>
-      <c r="K13" s="10">
-        <f t="shared" si="2"/>
+      <c r="K13" s="9">
+        <f>(I13-D13)/D13</f>
         <v>-2.2329287501157997E-2</v>
       </c>
-      <c r="M13" s="7">
-        <f t="shared" si="8"/>
+      <c r="M13" s="6">
+        <f>E13/I13</f>
         <v>0.57519901440485222</v>
       </c>
-      <c r="N13" s="7">
+      <c r="N13" s="6">
         <f>F13/I13</f>
         <v>0.42480098559514784</v>
       </c>
@@ -1338,27 +1340,78 @@
         <f>423.13*N13</f>
         <v>179.74604103487491</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <f>B14+C14</f>
         <v>423.13</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
+      <c r="E14" s="2">
+        <f>8.8+80.06+36.65+38.14+50.5+43.21+2.67</f>
+        <v>260.02999999999997</v>
+      </c>
+      <c r="F14" s="2">
+        <f>29.64+42.85+38.88+38.01+16.45</f>
+        <v>165.82999999999998</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" ref="G14" si="11">E14-B14</f>
+        <v>16.646041034874855</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" ref="H14" si="12">F14-C14</f>
+        <v>-13.916041034874922</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="9"/>
+        <v>425.85999999999996</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="10"/>
+        <v>2.7299999999999613</v>
+      </c>
+      <c r="K14" s="9">
+        <f>(I14-D14)/D14</f>
+        <v>6.4519178503059616E-3</v>
+      </c>
+      <c r="M14" s="6">
+        <f>E14/I14</f>
+        <v>0.61059972761001269</v>
+      </c>
+      <c r="N14" s="6">
+        <f>F14/I14</f>
+        <v>0.38940027238998731</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="C15" s="13"/>
+      <c r="A15" s="5">
+        <v>45038</v>
+      </c>
+      <c r="B15" s="2">
+        <f>D15*M14</f>
+        <v>261.52596933264454</v>
+      </c>
+      <c r="C15" s="2">
+        <f>D15*N14</f>
+        <v>166.78403066735547</v>
+      </c>
+      <c r="D15" s="2">
+        <v>428.31</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="P1:R1"/>
   </mergeCells>
-  <conditionalFormatting sqref="K2:K13">
-    <cfRule type="colorScale" priority="10">
+  <conditionalFormatting sqref="G2:G14">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1369,8 +1422,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K13">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="H2:H14">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1381,7 +1434,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J13">
+  <conditionalFormatting sqref="J2:J14">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -1393,8 +1446,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G13">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="K2:K14">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1404,9 +1457,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H13">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/portfolio performance.xlsx
+++ b/portfolio performance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Desktop\investments_f\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C2B03D-069B-4787-8160-D3E2E1784737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134BC3DD-4D00-4195-8B83-EED79D2F2EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4222634A-CA13-4635-AC99-CE16EEE8FAE4}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{4222634A-CA13-4635-AC99-CE16EEE8FAE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly perfomance" sheetId="3" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>tot</t>
   </si>
@@ -91,31 +91,28 @@
     <t>Profit/Loss</t>
   </si>
   <si>
-    <t>EU INV</t>
+    <t>€ P/L</t>
   </si>
   <si>
-    <t>US INV</t>
+    <t>eu inv</t>
   </si>
   <si>
-    <t>EU SOLD</t>
+    <t>us inv</t>
   </si>
   <si>
-    <t>US SOLD</t>
+    <t>eu sold</t>
   </si>
   <si>
-    <t>EU MARGIN</t>
+    <t>us sold</t>
   </si>
   <si>
-    <t>US MARGIN</t>
+    <t>eu margin</t>
   </si>
   <si>
-    <t>MONTHLY % RET</t>
+    <t>us margin</t>
   </si>
   <si>
-    <t>€ RET</t>
-  </si>
-  <si>
-    <t>RESULT</t>
+    <t>monthly % ret</t>
   </si>
 </sst>
 </file>
@@ -156,7 +153,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -164,9 +161,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -234,7 +231,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -252,23 +249,20 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -607,20 +601,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA970ADF-8D0D-484A-B6E5-2A2C201284D1}">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12" style="18" customWidth="1"/>
+    <col min="1" max="1" width="12" style="14" customWidth="1"/>
     <col min="2" max="2" width="11.36328125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.26953125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.36328125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.7265625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" style="4" customWidth="1"/>
     <col min="8" max="8" width="14.453125" style="4" customWidth="1"/>
     <col min="9" max="9" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.36328125" style="4" customWidth="1"/>
@@ -633,48 +627,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="17"/>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="13"/>
+      <c r="B1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="19" t="s">
+      <c r="K1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
     </row>
     <row r="2" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
@@ -705,7 +699,7 @@
         <v>-5.07</v>
       </c>
       <c r="I2" s="2">
-        <f t="shared" ref="I2:I8" si="1">E2+F2</f>
+        <f>E2+F2</f>
         <v>89.47999999999999</v>
       </c>
       <c r="J2" s="2">
@@ -713,16 +707,16 @@
         <v>-8.3000000000000114</v>
       </c>
       <c r="K2" s="9">
-        <f t="shared" ref="K2:K13" si="2">(I2-D2)/D2</f>
+        <f>(I2-D2)/D2</f>
         <v>-8.4884434444671822E-2</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="7">
-        <f t="shared" ref="M2:M7" si="3">E2/I2</f>
+        <f>E2/I2</f>
         <v>0.52022798390701841</v>
       </c>
       <c r="N2" s="6">
-        <f t="shared" ref="N2:N8" si="4">F2/I2</f>
+        <f>F2/I2</f>
         <v>0.4797720160929817</v>
       </c>
       <c r="O2" s="8"/>
@@ -757,46 +751,46 @@
         <v>148.71</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G13" si="5">E3-B3</f>
+        <f t="shared" ref="G3:G13" si="1">E3-B3</f>
         <v>3.9499999999999886</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H13" si="6">F3-C3</f>
+        <f t="shared" ref="H3:H13" si="2">F3-C3</f>
         <v>8.960000000000008</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" si="1"/>
+        <f>E3+F3</f>
         <v>305.47000000000003</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" ref="J3:J9" si="7">I3-D3</f>
+        <f>I3-D3</f>
         <v>12.910000000000025</v>
       </c>
       <c r="K3" s="9">
-        <f t="shared" si="2"/>
+        <f>(I3-D3)/D3</f>
         <v>4.4127700300793084E-2</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="7">
-        <f t="shared" si="3"/>
+        <f>E3/I3</f>
         <v>0.51317641666939462</v>
       </c>
       <c r="N3" s="6">
-        <f t="shared" si="4"/>
+        <f>F3/I3</f>
         <v>0.48682358333060527</v>
       </c>
       <c r="O3" s="8"/>
       <c r="P3" s="2">
-        <f>SUM(E2:E13)-SUM(B2:B13)</f>
-        <v>-12.723439657821473</v>
+        <f>SUM(E2:E15)-SUM(B2:B15)</f>
+        <v>7.3166320444088342</v>
       </c>
       <c r="Q3" s="2">
-        <f>SUM(F2:F13)-SUM(C2:C13)</f>
-        <v>-68.966560342178582</v>
+        <f>SUM(F2:F15)-SUM(C2:C15)</f>
+        <v>-80.566632044409289</v>
       </c>
       <c r="R3" s="3">
         <f>SUM(J:J)</f>
-        <v>-78.959999999999923</v>
+        <v>-73.249999999999886</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
@@ -820,38 +814,38 @@
         <v>152.04</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>3.4900000000000091</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3.3299999999999841</v>
       </c>
       <c r="I4" s="2">
-        <f t="shared" si="1"/>
+        <f>E4+F4</f>
         <v>312.28999999999996</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" si="7"/>
+        <f>I4-D4</f>
         <v>6.8199999999999363</v>
       </c>
       <c r="K4" s="9">
-        <f t="shared" si="2"/>
+        <f>(I4-D4)/D4</f>
         <v>2.2326251350377895E-2</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="7">
-        <f t="shared" si="3"/>
+        <f>E4/I4</f>
         <v>0.51314483332799643</v>
       </c>
       <c r="N4" s="6">
-        <f t="shared" si="4"/>
+        <f>F4/I4</f>
         <v>0.48685516667200363</v>
       </c>
       <c r="O4" s="8"/>
       <c r="R4" s="6">
-        <f>(I13-D5)/D5</f>
-        <v>-0.1555359929574647</v>
+        <f>(I15-D5)/D5</f>
+        <v>-0.13164739306150214</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
@@ -877,32 +871,32 @@
         <v>218.40000000000003</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-5.8100000000000023</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-24.939999999999969</v>
       </c>
       <c r="I5" s="2">
-        <f t="shared" si="1"/>
+        <f>E5+F5</f>
         <v>469.07000000000005</v>
       </c>
       <c r="J5" s="2">
-        <f t="shared" si="7"/>
+        <f>I5-D5</f>
         <v>-30.75</v>
       </c>
       <c r="K5" s="9">
-        <f t="shared" si="2"/>
+        <f>(I5-D5)/D5</f>
         <v>-6.1522147973270373E-2</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="7">
-        <f t="shared" si="3"/>
+        <f>E5/I5</f>
         <v>0.53439785106700488</v>
       </c>
       <c r="N5" s="6">
-        <f t="shared" si="4"/>
+        <f>F5/I5</f>
         <v>0.46560214893299512</v>
       </c>
       <c r="O5" s="8"/>
@@ -932,31 +926,31 @@
         <v>210.79</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-16.099999999999994</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-18.220000000000027</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" si="1"/>
+        <f>E6+F6</f>
         <v>445.36</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" si="7"/>
+        <f>I6-D6</f>
         <v>-34.319999999999993</v>
       </c>
       <c r="K6" s="9">
-        <f t="shared" si="2"/>
+        <f>(I6-D6)/D6</f>
         <v>-7.1547698465643753E-2</v>
       </c>
       <c r="M6" s="7">
-        <f t="shared" si="3"/>
+        <f>E6/I6</f>
         <v>0.52669750314352426</v>
       </c>
       <c r="N6" s="6">
-        <f t="shared" si="4"/>
+        <f>F6/I6</f>
         <v>0.47330249685647563</v>
       </c>
     </row>
@@ -985,31 +979,31 @@
         <v>232.40000000000003</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.15715892760906058</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>21.21715892760912</v>
       </c>
       <c r="I7" s="2">
-        <f t="shared" si="1"/>
+        <f>E7+F7</f>
         <v>467.25000000000006</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" si="7"/>
+        <f>I7-D7</f>
         <v>21.060000000000059</v>
       </c>
       <c r="K7" s="9">
-        <f t="shared" si="2"/>
+        <f>(I7-D7)/D7</f>
         <v>4.7199623478787193E-2</v>
       </c>
       <c r="M7" s="6">
-        <f t="shared" si="3"/>
+        <f>E7/I7</f>
         <v>0.50262172284644191</v>
       </c>
       <c r="N7" s="6">
-        <f t="shared" si="4"/>
+        <f>F7/I7</f>
         <v>0.49737827715355809</v>
       </c>
     </row>
@@ -1038,31 +1032,31 @@
         <v>224.89000000000001</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>3.8017228464419759</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-8.13172284644196</v>
       </c>
       <c r="I8" s="2">
-        <f t="shared" si="1"/>
+        <f>E8+F8</f>
         <v>464.17</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" si="7"/>
+        <f>I8-D8</f>
         <v>-4.3299999999999841</v>
       </c>
       <c r="K8" s="9">
-        <f t="shared" si="2"/>
+        <f>(I8-D8)/D8</f>
         <v>-9.24226254002131E-3</v>
       </c>
       <c r="M8" s="6">
-        <f t="shared" ref="M8:M13" si="8">E8/I8</f>
+        <f>E8/I8</f>
         <v>0.51550078634982877</v>
       </c>
       <c r="N8" s="6">
-        <f t="shared" si="4"/>
+        <f>F8/I8</f>
         <v>0.48449921365017129</v>
       </c>
     </row>
@@ -1089,11 +1083,11 @@
         <v>217.93</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-15.169999999999987</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-6.9599999999999795</v>
       </c>
       <c r="I9" s="2">
@@ -1101,15 +1095,15 @@
         <v>442.04</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" si="7"/>
+        <f>I9-D9</f>
         <v>-22.129999999999939</v>
       </c>
       <c r="K9" s="9">
-        <f t="shared" si="2"/>
+        <f>(I9-D9)/D9</f>
         <v>-4.7676497834844865E-2</v>
       </c>
       <c r="M9" s="6">
-        <f t="shared" si="8"/>
+        <f>E9/I9</f>
         <v>0.50699031761831514</v>
       </c>
       <c r="N9" s="6">
@@ -1142,11 +1136,11 @@
         <v>222.57999999999998</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>6.0299999999999443</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>4.6499999999999773</v>
       </c>
       <c r="I10" s="2">
@@ -1158,11 +1152,11 @@
         <v>10.679999999999893</v>
       </c>
       <c r="K10" s="9">
-        <f t="shared" si="2"/>
+        <f>(I10-D10)/D10</f>
         <v>2.4160709438059657E-2</v>
       </c>
       <c r="M10" s="6">
-        <f t="shared" si="8"/>
+        <f>E10/I10</f>
         <v>0.50834953171938502</v>
       </c>
       <c r="N10" s="6">
@@ -1195,11 +1189,11 @@
         <v>209.62</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.66999999999995907</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-12.95999999999998</v>
       </c>
       <c r="I11" s="2">
@@ -1211,11 +1205,11 @@
         <v>-13.629999999999939</v>
       </c>
       <c r="K11" s="9">
-        <f t="shared" si="2"/>
+        <f>(I11-D11)/D11</f>
         <v>-3.0033934158917502E-2</v>
       </c>
       <c r="M11" s="6">
-        <f t="shared" si="8"/>
+        <f>E11/I11</f>
         <v>0.52379654240214446</v>
       </c>
       <c r="N11" s="6">
@@ -1247,27 +1241,27 @@
         <v>195.44</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>4.1200000000000045</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-14.180000000000007</v>
       </c>
       <c r="I12" s="2">
-        <f t="shared" ref="I12:I14" si="9">E12+F12</f>
+        <f>E12+F12</f>
         <v>430.57</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" ref="J12:J14" si="10">I12-D12</f>
+        <f>I12-D12</f>
         <v>-10.060000000000002</v>
       </c>
       <c r="K12" s="9">
-        <f t="shared" si="2"/>
+        <f>(I12-D12)/D12</f>
         <v>-2.2830946599187531E-2</v>
       </c>
       <c r="M12" s="6">
-        <f t="shared" si="8"/>
+        <f>E12/I12</f>
         <v>0.54609006665582827</v>
       </c>
       <c r="N12" s="6">
@@ -1300,19 +1294,19 @@
         <v>179.3</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>7.0219964233458541</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-16.661996423345784</v>
       </c>
       <c r="I13" s="2">
-        <f t="shared" si="9"/>
+        <f>E13+F13</f>
         <v>422.08000000000004</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" si="10"/>
+        <f>I13-D13</f>
         <v>-9.6399999999999295</v>
       </c>
       <c r="K13" s="9">
@@ -1353,19 +1347,19 @@
         <v>165.82999999999998</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" ref="G14" si="11">E14-B14</f>
+        <f t="shared" ref="G14:G15" si="3">E14-B14</f>
         <v>16.646041034874855</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" ref="H14" si="12">F14-C14</f>
+        <f>F14-C14</f>
         <v>-13.916041034874922</v>
       </c>
       <c r="I14" s="2">
-        <f t="shared" si="9"/>
+        <f>E14+F14</f>
         <v>425.85999999999996</v>
       </c>
       <c r="J14" s="2">
-        <f t="shared" si="10"/>
+        <f>I14-D14</f>
         <v>2.7299999999999613</v>
       </c>
       <c r="K14" s="9">
@@ -1396,21 +1390,71 @@
       <c r="D15" s="2">
         <v>428.31</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
+      <c r="E15" s="2">
+        <f>28.35+95.08+25.65+51.45+38.76+25.63</f>
+        <v>264.92</v>
+      </c>
+      <c r="F15" s="2">
+        <f>6.9+69.8+12.54+57.17+22.69</f>
+        <v>169.10000000000002</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3940306673554801</v>
+      </c>
+      <c r="H15" s="1">
+        <f>F15-C15</f>
+        <v>2.3159693326445563</v>
+      </c>
+      <c r="I15" s="2">
+        <f>E15+F15</f>
+        <v>434.02000000000004</v>
+      </c>
+      <c r="J15" s="2">
+        <f>I15-D15</f>
+        <v>5.7100000000000364</v>
+      </c>
+      <c r="K15" s="9">
+        <f>(I15-D15)/D15</f>
+        <v>1.3331465527305074E-2</v>
+      </c>
+      <c r="M15" s="6">
+        <f>E15/I15</f>
+        <v>0.61038661812819683</v>
+      </c>
+      <c r="N15" s="6">
+        <f>F15/I15</f>
+        <v>0.38961338187180317</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
+        <v>45095</v>
+      </c>
+      <c r="B16" s="2">
+        <f>D16*M15</f>
+        <v>265.9881765817243</v>
+      </c>
+      <c r="C16" s="2">
+        <f>D16-B16</f>
+        <v>169.78182341827568</v>
+      </c>
+      <c r="D16" s="2">
+        <v>435.77</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="P1:R1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G2:G14">
+  <conditionalFormatting sqref="G2:G15">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1422,7 +1466,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H14">
+  <conditionalFormatting sqref="H2:H15">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -1434,7 +1478,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J14">
+  <conditionalFormatting sqref="J2:J15">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -1446,7 +1490,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K14">
+  <conditionalFormatting sqref="K2:K15">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>

--- a/portfolio performance.xlsx
+++ b/portfolio performance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Desktop\investments_f\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134BC3DD-4D00-4195-8B83-EED79D2F2EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29769D33-508C-4AA0-9830-ED4D546C3449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{4222634A-CA13-4635-AC99-CE16EEE8FAE4}"/>
   </bookViews>
@@ -40,6 +40,7 @@
     <author>tc={5B27B67F-AA34-4409-8F84-50BDA894BA43}</author>
     <author>tc={D7691988-A97B-4AEA-ABF6-1E071E14CF62}</author>
     <author>tc={93DC1C0E-EEB9-4F35-8EC3-96D3000E2C82}</author>
+    <author>Filippo De Berardinis</author>
   </authors>
   <commentList>
     <comment ref="C6" authorId="0" shapeId="0" xr:uid="{5B27B67F-AA34-4409-8F84-50BDA894BA43}">
@@ -66,12 +67,62 @@
     1,1€ dividend</t>
       </text>
     </comment>
+    <comment ref="B17" authorId="3" shapeId="0" xr:uid="{FCCE9D87-5D3B-4F5B-A1BE-8A2E9EAD2615}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Filippo De Berardinis:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+aggiunta 500€
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C17" authorId="3" shapeId="0" xr:uid="{E0DF025C-6549-4B2D-9A97-24EBCF3F84DC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Filippo De Berardinis:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Aggiunta 500€
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>tot</t>
   </si>
@@ -86,9 +137,6 @@
   </si>
   <si>
     <t>US</t>
-  </si>
-  <si>
-    <t>Profit/Loss</t>
   </si>
   <si>
     <t>€ P/L</t>
@@ -114,6 +162,12 @@
   <si>
     <t>monthly % ret</t>
   </si>
+  <si>
+    <t>Profit/Loss (500€)</t>
+  </si>
+  <si>
+    <t>Profit/Loss (aggiunta 1000€)</t>
+  </si>
 </sst>
 </file>
 
@@ -122,7 +176,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,8 +222,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,6 +252,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -231,7 +304,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -253,9 +326,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -263,6 +333,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -601,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA970ADF-8D0D-484A-B6E5-2A2C201284D1}">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -612,7 +693,8 @@
     <col min="1" max="1" width="12" style="14" customWidth="1"/>
     <col min="2" max="2" width="11.36328125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.36328125" style="4" customWidth="1"/>
     <col min="7" max="7" width="12.1796875" style="4" customWidth="1"/>
     <col min="8" max="8" width="14.453125" style="4" customWidth="1"/>
@@ -628,47 +710,47 @@
   <sheetData>
     <row r="1" spans="1:18" s="11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="13"/>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="F1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="16" t="s">
+      <c r="J1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="17" t="s">
+      <c r="M1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
     </row>
     <row r="2" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
@@ -680,7 +762,7 @@
       <c r="C2" s="2">
         <v>48</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="19">
         <f t="shared" ref="D2:D11" si="0">B2+C2</f>
         <v>97.78</v>
       </c>
@@ -698,25 +780,25 @@
         <f>F2-C2</f>
         <v>-5.07</v>
       </c>
-      <c r="I2" s="2">
-        <f>E2+F2</f>
+      <c r="I2" s="20">
+        <f t="shared" ref="I2:I16" si="1">E2+F2</f>
         <v>89.47999999999999</v>
       </c>
       <c r="J2" s="2">
-        <f>I2-D2</f>
+        <f t="shared" ref="J2:J16" si="2">I2-D2</f>
         <v>-8.3000000000000114</v>
       </c>
       <c r="K2" s="9">
-        <f>(I2-D2)/D2</f>
+        <f t="shared" ref="K2:K15" si="3">(I2-D2)/D2</f>
         <v>-8.4884434444671822E-2</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="7">
-        <f>E2/I2</f>
+        <f t="shared" ref="M2:M15" si="4">E2/I2</f>
         <v>0.52022798390701841</v>
       </c>
       <c r="N2" s="6">
-        <f>F2/I2</f>
+        <f t="shared" ref="N2:N16" si="5">F2/I2</f>
         <v>0.4797720160929817</v>
       </c>
       <c r="O2" s="8"/>
@@ -740,7 +822,7 @@
       <c r="C3" s="2">
         <v>139.75</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="19">
         <f t="shared" si="0"/>
         <v>292.56</v>
       </c>
@@ -751,46 +833,46 @@
         <v>148.71</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G13" si="1">E3-B3</f>
+        <f t="shared" ref="G3:G13" si="6">E3-B3</f>
         <v>3.9499999999999886</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H13" si="2">F3-C3</f>
+        <f t="shared" ref="H3:H13" si="7">F3-C3</f>
         <v>8.960000000000008</v>
       </c>
-      <c r="I3" s="2">
-        <f>E3+F3</f>
+      <c r="I3" s="20">
+        <f t="shared" si="1"/>
         <v>305.47000000000003</v>
       </c>
       <c r="J3" s="2">
-        <f>I3-D3</f>
+        <f t="shared" si="2"/>
         <v>12.910000000000025</v>
       </c>
       <c r="K3" s="9">
-        <f>(I3-D3)/D3</f>
+        <f t="shared" si="3"/>
         <v>4.4127700300793084E-2</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="7">
-        <f>E3/I3</f>
+        <f t="shared" si="4"/>
         <v>0.51317641666939462</v>
       </c>
       <c r="N3" s="6">
-        <f>F3/I3</f>
+        <f t="shared" si="5"/>
         <v>0.48682358333060527</v>
       </c>
       <c r="O3" s="8"/>
       <c r="P3" s="2">
-        <f>SUM(E2:E15)-SUM(B2:B15)</f>
-        <v>7.3166320444088342</v>
+        <f>SUM(E2:E16)-SUM(B2:B16)</f>
+        <v>13.958455462684469</v>
       </c>
       <c r="Q3" s="2">
-        <f>SUM(F2:F15)-SUM(C2:C15)</f>
-        <v>-80.566632044409289</v>
+        <f>SUM(F2:F16)-SUM(C2:C16)</f>
+        <v>-79.808455462684833</v>
       </c>
       <c r="R3" s="3">
         <f>SUM(J:J)</f>
-        <v>-73.249999999999886</v>
+        <v>-65.849999999999795</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
@@ -803,7 +885,7 @@
       <c r="C4" s="2">
         <v>148.71</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="19">
         <f t="shared" si="0"/>
         <v>305.47000000000003</v>
       </c>
@@ -814,38 +896,38 @@
         <v>152.04</v>
       </c>
       <c r="G4" s="1">
+        <f t="shared" si="6"/>
+        <v>3.4900000000000091</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="7"/>
+        <v>3.3299999999999841</v>
+      </c>
+      <c r="I4" s="20">
         <f t="shared" si="1"/>
-        <v>3.4900000000000091</v>
-      </c>
-      <c r="H4" s="1">
+        <v>312.28999999999996</v>
+      </c>
+      <c r="J4" s="2">
         <f t="shared" si="2"/>
-        <v>3.3299999999999841</v>
-      </c>
-      <c r="I4" s="2">
-        <f>E4+F4</f>
-        <v>312.28999999999996</v>
-      </c>
-      <c r="J4" s="2">
-        <f>I4-D4</f>
         <v>6.8199999999999363</v>
       </c>
       <c r="K4" s="9">
-        <f>(I4-D4)/D4</f>
+        <f t="shared" si="3"/>
         <v>2.2326251350377895E-2</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="7">
-        <f>E4/I4</f>
+        <f t="shared" si="4"/>
         <v>0.51314483332799643</v>
       </c>
       <c r="N4" s="6">
-        <f>F4/I4</f>
+        <f t="shared" si="5"/>
         <v>0.48685516667200363</v>
       </c>
       <c r="O4" s="8"/>
       <c r="R4" s="6">
-        <f>(I15-D5)/D5</f>
-        <v>-0.13164739306150214</v>
+        <f>(I16-D5)/D5</f>
+        <v>-0.11334080268896797</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
@@ -858,7 +940,7 @@
       <c r="C5" s="2">
         <v>243.34</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="19">
         <f t="shared" si="0"/>
         <v>499.82000000000005</v>
       </c>
@@ -871,32 +953,32 @@
         <v>218.40000000000003</v>
       </c>
       <c r="G5" s="1">
+        <f t="shared" si="6"/>
+        <v>-5.8100000000000023</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="7"/>
+        <v>-24.939999999999969</v>
+      </c>
+      <c r="I5" s="20">
         <f t="shared" si="1"/>
-        <v>-5.8100000000000023</v>
-      </c>
-      <c r="H5" s="1">
+        <v>469.07000000000005</v>
+      </c>
+      <c r="J5" s="2">
         <f t="shared" si="2"/>
-        <v>-24.939999999999969</v>
-      </c>
-      <c r="I5" s="2">
-        <f>E5+F5</f>
-        <v>469.07000000000005</v>
-      </c>
-      <c r="J5" s="2">
-        <f>I5-D5</f>
         <v>-30.75</v>
       </c>
       <c r="K5" s="9">
-        <f>(I5-D5)/D5</f>
+        <f t="shared" si="3"/>
         <v>-6.1522147973270373E-2</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="7">
-        <f>E5/I5</f>
+        <f t="shared" si="4"/>
         <v>0.53439785106700488</v>
       </c>
       <c r="N5" s="6">
-        <f>F5/I5</f>
+        <f t="shared" si="5"/>
         <v>0.46560214893299512</v>
       </c>
       <c r="O5" s="8"/>
@@ -913,7 +995,7 @@
         <f>218.4+8.65+1.96</f>
         <v>229.01000000000002</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="19">
         <f t="shared" si="0"/>
         <v>479.68</v>
       </c>
@@ -926,35 +1008,35 @@
         <v>210.79</v>
       </c>
       <c r="G6" s="1">
+        <f t="shared" si="6"/>
+        <v>-16.099999999999994</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="7"/>
+        <v>-18.220000000000027</v>
+      </c>
+      <c r="I6" s="20">
         <f t="shared" si="1"/>
-        <v>-16.099999999999994</v>
-      </c>
-      <c r="H6" s="1">
+        <v>445.36</v>
+      </c>
+      <c r="J6" s="2">
         <f t="shared" si="2"/>
-        <v>-18.220000000000027</v>
-      </c>
-      <c r="I6" s="2">
-        <f>E6+F6</f>
-        <v>445.36</v>
-      </c>
-      <c r="J6" s="2">
-        <f>I6-D6</f>
         <v>-34.319999999999993</v>
       </c>
       <c r="K6" s="9">
-        <f>(I6-D6)/D6</f>
+        <f t="shared" si="3"/>
         <v>-7.1547698465643753E-2</v>
       </c>
       <c r="M6" s="7">
-        <f>E6/I6</f>
+        <f t="shared" si="4"/>
         <v>0.52669750314352426</v>
       </c>
       <c r="N6" s="6">
-        <f>F6/I6</f>
+        <f t="shared" si="5"/>
         <v>0.47330249685647563</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>44733</v>
       </c>
@@ -966,7 +1048,7 @@
         <f>446.19-B7</f>
         <v>211.18284107239091</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="19">
         <f t="shared" si="0"/>
         <v>446.19</v>
       </c>
@@ -979,35 +1061,40 @@
         <v>232.40000000000003</v>
       </c>
       <c r="G7" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.15715892760906058</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="7"/>
+        <v>21.21715892760912</v>
+      </c>
+      <c r="I7" s="20">
         <f t="shared" si="1"/>
-        <v>-0.15715892760906058</v>
-      </c>
-      <c r="H7" s="1">
+        <v>467.25000000000006</v>
+      </c>
+      <c r="J7" s="2">
         <f t="shared" si="2"/>
-        <v>21.21715892760912</v>
-      </c>
-      <c r="I7" s="2">
-        <f>E7+F7</f>
-        <v>467.25000000000006</v>
-      </c>
-      <c r="J7" s="2">
-        <f>I7-D7</f>
         <v>21.060000000000059</v>
       </c>
       <c r="K7" s="9">
-        <f>(I7-D7)/D7</f>
+        <f t="shared" si="3"/>
         <v>4.7199623478787193E-2</v>
       </c>
       <c r="M7" s="6">
-        <f>E7/I7</f>
+        <f t="shared" si="4"/>
         <v>0.50262172284644191</v>
       </c>
       <c r="N7" s="6">
-        <f>F7/I7</f>
+        <f t="shared" si="5"/>
         <v>0.49737827715355809</v>
       </c>
+      <c r="P7" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>44769</v>
       </c>
@@ -1019,7 +1106,7 @@
         <f>468.5*N7</f>
         <v>233.02172284644197</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="19">
         <f t="shared" si="0"/>
         <v>468.5</v>
       </c>
@@ -1032,32 +1119,41 @@
         <v>224.89000000000001</v>
       </c>
       <c r="G8" s="1">
+        <f t="shared" si="6"/>
+        <v>3.8017228464419759</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="7"/>
+        <v>-8.13172284644196</v>
+      </c>
+      <c r="I8" s="20">
         <f t="shared" si="1"/>
-        <v>3.8017228464419759</v>
-      </c>
-      <c r="H8" s="1">
+        <v>464.17</v>
+      </c>
+      <c r="J8" s="2">
         <f t="shared" si="2"/>
-        <v>-8.13172284644196</v>
-      </c>
-      <c r="I8" s="2">
-        <f>E8+F8</f>
-        <v>464.17</v>
-      </c>
-      <c r="J8" s="2">
-        <f>I8-D8</f>
         <v>-4.3299999999999841</v>
       </c>
       <c r="K8" s="9">
-        <f>(I8-D8)/D8</f>
+        <f t="shared" si="3"/>
         <v>-9.24226254002131E-3</v>
       </c>
       <c r="M8" s="6">
-        <f>E8/I8</f>
+        <f t="shared" si="4"/>
         <v>0.51550078634982877</v>
       </c>
       <c r="N8" s="6">
-        <f>F8/I8</f>
+        <f t="shared" si="5"/>
         <v>0.48449921365017129</v>
+      </c>
+      <c r="P8" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="22" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
@@ -1070,7 +1166,7 @@
       <c r="C9" s="2">
         <v>224.89</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="19">
         <f t="shared" si="0"/>
         <v>464.16999999999996</v>
       </c>
@@ -1083,33 +1179,34 @@
         <v>217.93</v>
       </c>
       <c r="G9" s="1">
+        <f t="shared" si="6"/>
+        <v>-15.169999999999987</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="7"/>
+        <v>-6.9599999999999795</v>
+      </c>
+      <c r="I9" s="20">
         <f t="shared" si="1"/>
-        <v>-15.169999999999987</v>
-      </c>
-      <c r="H9" s="1">
+        <v>442.04</v>
+      </c>
+      <c r="J9" s="2">
         <f t="shared" si="2"/>
-        <v>-6.9599999999999795</v>
-      </c>
-      <c r="I9" s="2">
-        <f>E9+F9</f>
-        <v>442.04</v>
-      </c>
-      <c r="J9" s="2">
-        <f>I9-D9</f>
         <v>-22.129999999999939</v>
       </c>
       <c r="K9" s="9">
-        <f>(I9-D9)/D9</f>
+        <f t="shared" si="3"/>
         <v>-4.7676497834844865E-2</v>
       </c>
       <c r="M9" s="6">
-        <f>E9/I9</f>
+        <f t="shared" si="4"/>
         <v>0.50699031761831514</v>
       </c>
       <c r="N9" s="6">
-        <f>F9/I9</f>
+        <f t="shared" si="5"/>
         <v>0.49300968238168491</v>
       </c>
+      <c r="R9" s="10"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
@@ -1123,7 +1220,7 @@
         <f>I9*N9</f>
         <v>217.93</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="19">
         <f t="shared" si="0"/>
         <v>442.04000000000008</v>
       </c>
@@ -1136,31 +1233,31 @@
         <v>222.57999999999998</v>
       </c>
       <c r="G10" s="1">
+        <f t="shared" si="6"/>
+        <v>6.0299999999999443</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="7"/>
+        <v>4.6499999999999773</v>
+      </c>
+      <c r="I10" s="20">
         <f t="shared" si="1"/>
-        <v>6.0299999999999443</v>
-      </c>
-      <c r="H10" s="1">
+        <v>452.71999999999997</v>
+      </c>
+      <c r="J10" s="2">
         <f t="shared" si="2"/>
-        <v>4.6499999999999773</v>
-      </c>
-      <c r="I10" s="2">
-        <f>E10+F10</f>
-        <v>452.71999999999997</v>
-      </c>
-      <c r="J10" s="2">
-        <f>I10-D10</f>
         <v>10.679999999999893</v>
       </c>
       <c r="K10" s="9">
-        <f>(I10-D10)/D10</f>
+        <f t="shared" si="3"/>
         <v>2.4160709438059657E-2</v>
       </c>
       <c r="M10" s="6">
-        <f>E10/I10</f>
+        <f t="shared" si="4"/>
         <v>0.50834953171938502</v>
       </c>
       <c r="N10" s="6">
-        <f>F10/I10</f>
+        <f t="shared" si="5"/>
         <v>0.49165046828061493</v>
       </c>
     </row>
@@ -1176,7 +1273,7 @@
         <f>I10*N10</f>
         <v>222.57999999999998</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="19">
         <f t="shared" si="0"/>
         <v>453.81999999999994</v>
       </c>
@@ -1189,31 +1286,31 @@
         <v>209.62</v>
       </c>
       <c r="G11" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.66999999999995907</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="7"/>
+        <v>-12.95999999999998</v>
+      </c>
+      <c r="I11" s="20">
         <f t="shared" si="1"/>
-        <v>-0.66999999999995907</v>
-      </c>
-      <c r="H11" s="1">
+        <v>440.19</v>
+      </c>
+      <c r="J11" s="2">
         <f t="shared" si="2"/>
-        <v>-12.95999999999998</v>
-      </c>
-      <c r="I11" s="2">
-        <f>E11+F11</f>
-        <v>440.19</v>
-      </c>
-      <c r="J11" s="2">
-        <f>I11-D11</f>
         <v>-13.629999999999939</v>
       </c>
       <c r="K11" s="9">
-        <f>(I11-D11)/D11</f>
+        <f t="shared" si="3"/>
         <v>-3.0033934158917502E-2</v>
       </c>
       <c r="M11" s="6">
-        <f>E11/I11</f>
+        <f t="shared" si="4"/>
         <v>0.52379654240214446</v>
       </c>
       <c r="N11" s="6">
-        <f>F11/I11</f>
+        <f t="shared" si="5"/>
         <v>0.47620345759785548</v>
       </c>
     </row>
@@ -1228,7 +1325,7 @@
       <c r="C12" s="2">
         <v>209.62</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="19">
         <f>B12+C12</f>
         <v>440.63</v>
       </c>
@@ -1241,31 +1338,31 @@
         <v>195.44</v>
       </c>
       <c r="G12" s="1">
+        <f t="shared" si="6"/>
+        <v>4.1200000000000045</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="7"/>
+        <v>-14.180000000000007</v>
+      </c>
+      <c r="I12" s="20">
         <f t="shared" si="1"/>
-        <v>4.1200000000000045</v>
-      </c>
-      <c r="H12" s="1">
+        <v>430.57</v>
+      </c>
+      <c r="J12" s="2">
         <f t="shared" si="2"/>
-        <v>-14.180000000000007</v>
-      </c>
-      <c r="I12" s="2">
-        <f>E12+F12</f>
-        <v>430.57</v>
-      </c>
-      <c r="J12" s="2">
-        <f>I12-D12</f>
         <v>-10.060000000000002</v>
       </c>
       <c r="K12" s="9">
-        <f>(I12-D12)/D12</f>
+        <f t="shared" si="3"/>
         <v>-2.2830946599187531E-2</v>
       </c>
       <c r="M12" s="6">
-        <f>E12/I12</f>
+        <f t="shared" si="4"/>
         <v>0.54609006665582827</v>
       </c>
       <c r="N12" s="6">
-        <f>F12/I12</f>
+        <f t="shared" si="5"/>
         <v>0.45390993334417168</v>
       </c>
     </row>
@@ -1281,7 +1378,7 @@
         <f>D13*N12</f>
         <v>195.96199642334579</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="19">
         <f>I12+1.15</f>
         <v>431.71999999999997</v>
       </c>
@@ -1294,31 +1391,31 @@
         <v>179.3</v>
       </c>
       <c r="G13" s="1">
+        <f t="shared" si="6"/>
+        <v>7.0219964233458541</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="7"/>
+        <v>-16.661996423345784</v>
+      </c>
+      <c r="I13" s="20">
         <f t="shared" si="1"/>
-        <v>7.0219964233458541</v>
-      </c>
-      <c r="H13" s="1">
+        <v>422.08000000000004</v>
+      </c>
+      <c r="J13" s="2">
         <f t="shared" si="2"/>
-        <v>-16.661996423345784</v>
-      </c>
-      <c r="I13" s="2">
-        <f>E13+F13</f>
-        <v>422.08000000000004</v>
-      </c>
-      <c r="J13" s="2">
-        <f>I13-D13</f>
         <v>-9.6399999999999295</v>
       </c>
       <c r="K13" s="9">
-        <f>(I13-D13)/D13</f>
+        <f t="shared" si="3"/>
         <v>-2.2329287501157997E-2</v>
       </c>
       <c r="M13" s="6">
-        <f>E13/I13</f>
+        <f t="shared" si="4"/>
         <v>0.57519901440485222</v>
       </c>
       <c r="N13" s="6">
-        <f>F13/I13</f>
+        <f t="shared" si="5"/>
         <v>0.42480098559514784</v>
       </c>
     </row>
@@ -1334,7 +1431,7 @@
         <f>423.13*N13</f>
         <v>179.74604103487491</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="19">
         <f>B14+C14</f>
         <v>423.13</v>
       </c>
@@ -1347,31 +1444,31 @@
         <v>165.82999999999998</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" ref="G14:G15" si="3">E14-B14</f>
+        <f t="shared" ref="G14:G16" si="8">E14-B14</f>
         <v>16.646041034874855</v>
       </c>
       <c r="H14" s="1">
         <f>F14-C14</f>
         <v>-13.916041034874922</v>
       </c>
-      <c r="I14" s="2">
-        <f>E14+F14</f>
+      <c r="I14" s="20">
+        <f t="shared" si="1"/>
         <v>425.85999999999996</v>
       </c>
       <c r="J14" s="2">
-        <f>I14-D14</f>
+        <f t="shared" si="2"/>
         <v>2.7299999999999613</v>
       </c>
       <c r="K14" s="9">
-        <f>(I14-D14)/D14</f>
+        <f t="shared" si="3"/>
         <v>6.4519178503059616E-3</v>
       </c>
       <c r="M14" s="6">
-        <f>E14/I14</f>
+        <f t="shared" si="4"/>
         <v>0.61059972761001269</v>
       </c>
       <c r="N14" s="6">
-        <f>F14/I14</f>
+        <f t="shared" si="5"/>
         <v>0.38940027238998731</v>
       </c>
     </row>
@@ -1387,7 +1484,7 @@
         <f>D15*N14</f>
         <v>166.78403066735547</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="19">
         <v>428.31</v>
       </c>
       <c r="E15" s="2">
@@ -1399,19 +1496,19 @@
         <v>169.10000000000002</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3.3940306673554801</v>
       </c>
       <c r="H15" s="1">
         <f>F15-C15</f>
         <v>2.3159693326445563</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="20">
         <f>E15+F15</f>
         <v>434.02000000000004</v>
       </c>
       <c r="J15" s="2">
-        <f>I15-D15</f>
+        <f t="shared" si="2"/>
         <v>5.7100000000000364</v>
       </c>
       <c r="K15" s="9">
@@ -1423,7 +1520,7 @@
         <v>0.61038661812819683</v>
       </c>
       <c r="N15" s="6">
-        <f>F15/I15</f>
+        <f t="shared" si="5"/>
         <v>0.38961338187180317</v>
       </c>
     </row>
@@ -1439,22 +1536,78 @@
         <f>D16-B16</f>
         <v>169.78182341827568</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="19">
         <v>435.77</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="10"/>
+      <c r="E16" s="2">
+        <f>22.18+6.99+43.85+19.39+87.79+7.1+3.71+74.33+2.56+4.73</f>
+        <v>272.63000000000005</v>
+      </c>
+      <c r="F16" s="2">
+        <f>11+20.64+46.04+38.15+54.71</f>
+        <v>170.54000000000002</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="8"/>
+        <v>6.6418234182757487</v>
+      </c>
+      <c r="H16" s="1">
+        <f>F16-C16</f>
+        <v>0.75817658172434221</v>
+      </c>
+      <c r="I16" s="20">
+        <f>E16+F16</f>
+        <v>443.17000000000007</v>
+      </c>
+      <c r="J16" s="2">
+        <f>I16-D16</f>
+        <v>7.4000000000000909</v>
+      </c>
+      <c r="K16" s="9">
+        <f>(I16-D16)/D16</f>
+        <v>1.6981435160750145E-2</v>
+      </c>
+      <c r="M16" s="6">
+        <f>E16/I16</f>
+        <v>0.61518153304600942</v>
+      </c>
+      <c r="N16" s="6">
+        <f t="shared" si="5"/>
+        <v>0.38481846695399052</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
+        <v>45139</v>
+      </c>
+      <c r="B17" s="2">
+        <f>272.63+500.67</f>
+        <v>773.3</v>
+      </c>
+      <c r="C17" s="2">
+        <f>F16+500</f>
+        <v>670.54</v>
+      </c>
+      <c r="D17" s="20">
+        <f>B17+C17</f>
+        <v>1443.84</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="P1:R1"/>
+    <mergeCell ref="P7:R7"/>
   </mergeCells>
-  <conditionalFormatting sqref="G2:G15">
+  <conditionalFormatting sqref="G2:G16">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1466,7 +1619,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H15">
+  <conditionalFormatting sqref="H2:H16">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -1478,7 +1631,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J15">
+  <conditionalFormatting sqref="J2:J16">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -1490,7 +1643,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K15">
+  <conditionalFormatting sqref="K2:K16">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -1513,7 +1666,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/portfolio performance.xlsx
+++ b/portfolio performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Desktop\investments_f\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29769D33-508C-4AA0-9830-ED4D546C3449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87466E4-6A54-4709-A7C4-D5AF6FE06177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{4222634A-CA13-4635-AC99-CE16EEE8FAE4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4222634A-CA13-4635-AC99-CE16EEE8FAE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly perfomance" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <author>Filippo De Berardinis</author>
   </authors>
   <commentList>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{5B27B67F-AA34-4409-8F84-50BDA894BA43}">
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{5B27B67F-AA34-4409-8F84-50BDA894BA43}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -51,7 +51,7 @@
     Capitale + vendita apple azione regalo e dividendi vari</t>
       </text>
     </comment>
-    <comment ref="D6" authorId="1" shapeId="0" xr:uid="{D7691988-A97B-4AEA-ABF6-1E071E14CF62}">
+    <comment ref="H6" authorId="1" shapeId="0" xr:uid="{D7691988-A97B-4AEA-ABF6-1E071E14CF62}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -92,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C17" authorId="3" shapeId="0" xr:uid="{E0DF025C-6549-4B2D-9A97-24EBCF3F84DC}">
+    <comment ref="E17" authorId="3" shapeId="0" xr:uid="{E0DF025C-6549-4B2D-9A97-24EBCF3F84DC}">
       <text>
         <r>
           <rPr>
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>tot</t>
   </si>
@@ -166,7 +166,19 @@
     <t>Profit/Loss (500€)</t>
   </si>
   <si>
-    <t>Profit/Loss (aggiunta 1000€)</t>
+    <t>%ret</t>
+  </si>
+  <si>
+    <t>Profit/Loss (post aggiunta 1000€)</t>
+  </si>
+  <si>
+    <t>Profit/Loss (primi 3 mesi)</t>
+  </si>
+  <si>
+    <t>tot inv</t>
+  </si>
+  <si>
+    <t>tot sold</t>
   </si>
 </sst>
 </file>
@@ -257,12 +269,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -298,13 +310,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -335,17 +371,35 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -668,10 +722,10 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C6" dT="2022-05-24T23:17:18.40" personId="{59FAA9A2-E93C-44D0-837B-FAF8107166B0}" id="{5B27B67F-AA34-4409-8F84-50BDA894BA43}">
+  <threadedComment ref="E6" dT="2022-05-24T23:17:18.40" personId="{59FAA9A2-E93C-44D0-837B-FAF8107166B0}" id="{5B27B67F-AA34-4409-8F84-50BDA894BA43}">
     <text>Capitale + vendita apple azione regalo e dividendi vari</text>
   </threadedComment>
-  <threadedComment ref="D6" dT="2022-05-24T23:17:47.35" personId="{59FAA9A2-E93C-44D0-837B-FAF8107166B0}" id="{D7691988-A97B-4AEA-ABF6-1E071E14CF62}">
+  <threadedComment ref="H6" dT="2022-05-24T23:17:47.35" personId="{59FAA9A2-E93C-44D0-837B-FAF8107166B0}" id="{D7691988-A97B-4AEA-ABF6-1E071E14CF62}">
     <text>somma eu e nasdaq + tesla in ptf</text>
   </threadedComment>
   <threadedComment ref="B11" dT="2022-11-07T21:32:08.95" personId="{59FAA9A2-E93C-44D0-837B-FAF8107166B0}" id="{93DC1C0E-EEB9-4F35-8EC3-96D3000E2C82}">
@@ -682,57 +736,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA970ADF-8D0D-484A-B6E5-2A2C201284D1}">
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="104" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12" style="14" customWidth="1"/>
     <col min="2" max="2" width="11.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.26953125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.36328125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="14.453125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.36328125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="18.08984375" customWidth="1"/>
+    <col min="11" max="11" width="14.26953125" customWidth="1"/>
     <col min="12" max="12" width="10.6328125" customWidth="1"/>
     <col min="13" max="13" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.36328125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" s="11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="13"/>
       <c r="B1" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>8</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J1" s="15" t="s">
         <v>5</v>
@@ -746,13 +801,14 @@
       <c r="N1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
+      <c r="P1" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="30"/>
     </row>
-    <row r="2" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>44583</v>
       </c>
@@ -760,45 +816,45 @@
         <v>49.78</v>
       </c>
       <c r="C2" s="2">
+        <v>46.55</v>
+      </c>
+      <c r="D2" s="1">
+        <f>C2-B2</f>
+        <v>-3.230000000000004</v>
+      </c>
+      <c r="E2" s="2">
         <v>48</v>
-      </c>
-      <c r="D2" s="19">
-        <f t="shared" ref="D2:D11" si="0">B2+C2</f>
-        <v>97.78</v>
-      </c>
-      <c r="E2" s="2">
-        <v>46.55</v>
       </c>
       <c r="F2" s="1">
         <v>42.93</v>
       </c>
       <c r="G2" s="1">
-        <f>E2-B2</f>
-        <v>-3.230000000000004</v>
-      </c>
-      <c r="H2" s="1">
-        <f>F2-C2</f>
+        <f>F2-E2</f>
         <v>-5.07</v>
       </c>
-      <c r="I2" s="20">
-        <f t="shared" ref="I2:I16" si="1">E2+F2</f>
+      <c r="H2" s="18">
+        <f t="shared" ref="H2:H11" si="0">B2+E2</f>
+        <v>97.78</v>
+      </c>
+      <c r="I2" s="19">
+        <f>C2+F2</f>
         <v>89.47999999999999</v>
       </c>
       <c r="J2" s="2">
-        <f t="shared" ref="J2:J16" si="2">I2-D2</f>
+        <f>I2-H2</f>
         <v>-8.3000000000000114</v>
       </c>
       <c r="K2" s="9">
-        <f t="shared" ref="K2:K15" si="3">(I2-D2)/D2</f>
+        <f>(I2-H2)/H2</f>
         <v>-8.4884434444671822E-2</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="7">
-        <f t="shared" ref="M2:M15" si="4">E2/I2</f>
+        <f>C2/I2</f>
         <v>0.52022798390701841</v>
       </c>
       <c r="N2" s="6">
-        <f t="shared" ref="N2:N16" si="5">F2/I2</f>
+        <f>F2/I2</f>
         <v>0.4797720160929817</v>
       </c>
       <c r="O2" s="8"/>
@@ -811,8 +867,10 @@
       <c r="R2" s="12" t="s">
         <v>0</v>
       </c>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>44616</v>
       </c>
@@ -820,62 +878,64 @@
         <v>152.81</v>
       </c>
       <c r="C3" s="2">
+        <v>156.76</v>
+      </c>
+      <c r="D3" s="1">
+        <f>C3-B3</f>
+        <v>3.9499999999999886</v>
+      </c>
+      <c r="E3" s="2">
         <v>139.75</v>
       </c>
-      <c r="D3" s="19">
+      <c r="F3" s="2">
+        <v>148.71</v>
+      </c>
+      <c r="G3" s="1">
+        <f>F3-E3</f>
+        <v>8.960000000000008</v>
+      </c>
+      <c r="H3" s="18">
         <f t="shared" si="0"/>
         <v>292.56</v>
       </c>
-      <c r="E3" s="2">
-        <v>156.76</v>
-      </c>
-      <c r="F3" s="2">
-        <v>148.71</v>
-      </c>
-      <c r="G3" s="1">
-        <f t="shared" ref="G3:G13" si="6">E3-B3</f>
-        <v>3.9499999999999886</v>
-      </c>
-      <c r="H3" s="1">
-        <f t="shared" ref="H3:H13" si="7">F3-C3</f>
-        <v>8.960000000000008</v>
-      </c>
-      <c r="I3" s="20">
-        <f t="shared" si="1"/>
+      <c r="I3" s="19">
+        <f>C3+F3</f>
         <v>305.47000000000003</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" si="2"/>
+        <f>I3-H3</f>
         <v>12.910000000000025</v>
       </c>
       <c r="K3" s="9">
-        <f t="shared" si="3"/>
+        <f>(I3-H3)/H3</f>
         <v>4.4127700300793084E-2</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="7">
-        <f t="shared" si="4"/>
+        <f>C3/I3</f>
         <v>0.51317641666939462</v>
       </c>
       <c r="N3" s="6">
-        <f t="shared" si="5"/>
+        <f>F3/I3</f>
         <v>0.48682358333060527</v>
       </c>
       <c r="O3" s="8"/>
       <c r="P3" s="2">
-        <f>SUM(E2:E16)-SUM(B2:B16)</f>
-        <v>13.958455462684469</v>
+        <f>SUM(D2:D4)</f>
+        <v>4.2099999999999937</v>
       </c>
       <c r="Q3" s="2">
-        <f>SUM(F2:F16)-SUM(C2:C16)</f>
-        <v>-79.808455462684833</v>
+        <f>SUM(G2:G4)</f>
+        <v>7.2199999999999918</v>
       </c>
       <c r="R3" s="3">
-        <f>SUM(J:J)</f>
-        <v>-65.849999999999795</v>
-      </c>
+        <f>SUM(J2:J4)</f>
+        <v>11.42999999999995</v>
+      </c>
+      <c r="S3" s="29"/>
+      <c r="T3" s="22"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>44644</v>
       </c>
@@ -883,54 +943,50 @@
         <v>156.76</v>
       </c>
       <c r="C4" s="2">
+        <v>160.25</v>
+      </c>
+      <c r="D4" s="1">
+        <f>C4-B4</f>
+        <v>3.4900000000000091</v>
+      </c>
+      <c r="E4" s="2">
         <v>148.71</v>
       </c>
-      <c r="D4" s="19">
+      <c r="F4" s="2">
+        <v>152.04</v>
+      </c>
+      <c r="G4" s="1">
+        <f>F4-E4</f>
+        <v>3.3299999999999841</v>
+      </c>
+      <c r="H4" s="18">
         <f t="shared" si="0"/>
         <v>305.47000000000003</v>
       </c>
-      <c r="E4" s="2">
-        <v>160.25</v>
-      </c>
-      <c r="F4" s="2">
-        <v>152.04</v>
-      </c>
-      <c r="G4" s="1">
-        <f t="shared" si="6"/>
-        <v>3.4900000000000091</v>
-      </c>
-      <c r="H4" s="1">
-        <f t="shared" si="7"/>
-        <v>3.3299999999999841</v>
-      </c>
-      <c r="I4" s="20">
-        <f t="shared" si="1"/>
+      <c r="I4" s="19">
+        <f>C4+F4</f>
         <v>312.28999999999996</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" si="2"/>
+        <f>I4-H4</f>
         <v>6.8199999999999363</v>
       </c>
       <c r="K4" s="9">
-        <f t="shared" si="3"/>
+        <f>(I4-H4)/H4</f>
         <v>2.2326251350377895E-2</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="7">
-        <f t="shared" si="4"/>
+        <f>C4/I4</f>
         <v>0.51314483332799643</v>
       </c>
       <c r="N4" s="6">
-        <f t="shared" si="5"/>
+        <f>F4/I4</f>
         <v>0.48685516667200363</v>
       </c>
       <c r="O4" s="8"/>
-      <c r="R4" s="6">
-        <f>(I16-D5)/D5</f>
-        <v>-0.11334080268896797</v>
-      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>44676</v>
       </c>
@@ -938,53 +994,52 @@
         <v>256.48</v>
       </c>
       <c r="C5" s="2">
-        <v>243.34</v>
-      </c>
-      <c r="D5" s="19">
-        <f t="shared" si="0"/>
-        <v>499.82000000000005</v>
-      </c>
-      <c r="E5" s="2">
         <f>122.32+29.52+84.72+14.11</f>
         <v>250.67000000000002</v>
+      </c>
+      <c r="D5" s="1">
+        <f>C5-B5</f>
+        <v>-5.8100000000000023</v>
+      </c>
+      <c r="E5" s="2">
+        <v>243.34</v>
       </c>
       <c r="F5" s="2">
         <f>12.64+29.87+142.15+33.74</f>
         <v>218.40000000000003</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="6"/>
-        <v>-5.8100000000000023</v>
-      </c>
-      <c r="H5" s="1">
-        <f t="shared" si="7"/>
+        <f>F5-E5</f>
         <v>-24.939999999999969</v>
       </c>
-      <c r="I5" s="20">
-        <f t="shared" si="1"/>
+      <c r="H5" s="18">
+        <f t="shared" si="0"/>
+        <v>499.82000000000005</v>
+      </c>
+      <c r="I5" s="19">
+        <f>C5+F5</f>
         <v>469.07000000000005</v>
       </c>
       <c r="J5" s="2">
-        <f t="shared" si="2"/>
+        <f>I5-H5</f>
         <v>-30.75</v>
       </c>
       <c r="K5" s="9">
-        <f t="shared" si="3"/>
+        <f>(I5-H5)/H5</f>
         <v>-6.1522147973270373E-2</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="7">
-        <f t="shared" si="4"/>
+        <f>C5/I5</f>
         <v>0.53439785106700488</v>
       </c>
       <c r="N5" s="6">
-        <f t="shared" si="5"/>
+        <f>F5/I5</f>
         <v>0.46560214893299512</v>
       </c>
       <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>44706</v>
       </c>
@@ -992,51 +1047,51 @@
         <v>250.67</v>
       </c>
       <c r="C6" s="2">
+        <f>65.41+21.39+39.03+108.74</f>
+        <v>234.57</v>
+      </c>
+      <c r="D6" s="1">
+        <f>C6-B6</f>
+        <v>-16.099999999999994</v>
+      </c>
+      <c r="E6" s="2">
         <f>218.4+8.65+1.96</f>
         <v>229.01000000000002</v>
-      </c>
-      <c r="D6" s="19">
-        <f t="shared" si="0"/>
-        <v>479.68</v>
-      </c>
-      <c r="E6" s="2">
-        <f>65.41+21.39+39.03+108.74</f>
-        <v>234.57</v>
       </c>
       <c r="F6" s="2">
         <f>3.42+21.3+1.54+22.41+6.76+4.49+88.16+10.01+3.78+2.93+9.39+3.61+13.04+1.34+16.69+1.92</f>
         <v>210.79</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="6"/>
-        <v>-16.099999999999994</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="shared" si="7"/>
+        <f>F6-E6</f>
         <v>-18.220000000000027</v>
       </c>
-      <c r="I6" s="20">
-        <f t="shared" si="1"/>
+      <c r="H6" s="18">
+        <f t="shared" si="0"/>
+        <v>479.68</v>
+      </c>
+      <c r="I6" s="19">
+        <f>C6+F6</f>
         <v>445.36</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" si="2"/>
+        <f>I6-H6</f>
         <v>-34.319999999999993</v>
       </c>
       <c r="K6" s="9">
-        <f t="shared" si="3"/>
+        <f>(I6-H6)/H6</f>
         <v>-7.1547698465643753E-2</v>
       </c>
       <c r="M6" s="7">
-        <f t="shared" si="4"/>
+        <f>C6/I6</f>
         <v>0.52669750314352426</v>
       </c>
       <c r="N6" s="6">
-        <f t="shared" si="5"/>
+        <f>F6/I6</f>
         <v>0.47330249685647563</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>44733</v>
       </c>
@@ -1045,56 +1100,57 @@
         <v>235.00715892760908</v>
       </c>
       <c r="C7" s="2">
+        <f>15.66+56.21+33.37+11.09+26.56+91.96</f>
+        <v>234.85000000000002</v>
+      </c>
+      <c r="D7" s="1">
+        <f>C7-B7</f>
+        <v>-0.15715892760906058</v>
+      </c>
+      <c r="E7" s="2">
         <f>446.19-B7</f>
         <v>211.18284107239091</v>
-      </c>
-      <c r="D7" s="19">
-        <f t="shared" si="0"/>
-        <v>446.19</v>
-      </c>
-      <c r="E7" s="2">
-        <f>15.66+56.21+33.37+11.09+26.56+91.96</f>
-        <v>234.85000000000002</v>
       </c>
       <c r="F7" s="2">
         <f>41.3+105.68+11.47+73.95</f>
         <v>232.40000000000003</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="6"/>
-        <v>-0.15715892760906058</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" si="7"/>
+        <f>F7-E7</f>
         <v>21.21715892760912</v>
       </c>
-      <c r="I7" s="20">
-        <f t="shared" si="1"/>
+      <c r="H7" s="18">
+        <f t="shared" si="0"/>
+        <v>446.19</v>
+      </c>
+      <c r="I7" s="19">
+        <f>C7+F7</f>
         <v>467.25000000000006</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" si="2"/>
+        <f>I7-H7</f>
         <v>21.060000000000059</v>
       </c>
       <c r="K7" s="9">
-        <f t="shared" si="3"/>
+        <f>(I7-H7)/H7</f>
         <v>4.7199623478787193E-2</v>
       </c>
       <c r="M7" s="6">
-        <f t="shared" si="4"/>
+        <f>C7/I7</f>
         <v>0.50262172284644191</v>
       </c>
       <c r="N7" s="6">
-        <f t="shared" si="5"/>
+        <f>F7/I7</f>
         <v>0.49737827715355809</v>
       </c>
-      <c r="P7" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
+      <c r="P7" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="25"/>
     </row>
-    <row r="8" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>44769</v>
       </c>
@@ -1103,60 +1159,63 @@
         <v>235.47827715355803</v>
       </c>
       <c r="C8" s="2">
+        <f>92.56+26.35+120.37</f>
+        <v>239.28</v>
+      </c>
+      <c r="D8" s="1">
+        <f>C8-B8</f>
+        <v>3.8017228464419759</v>
+      </c>
+      <c r="E8" s="2">
         <f>468.5*N7</f>
         <v>233.02172284644197</v>
-      </c>
-      <c r="D8" s="19">
-        <f t="shared" si="0"/>
-        <v>468.5</v>
-      </c>
-      <c r="E8" s="2">
-        <f>92.56+26.35+120.37</f>
-        <v>239.28</v>
       </c>
       <c r="F8" s="2">
         <f>48.8+103.8+3.47+63.74+5.08</f>
         <v>224.89000000000001</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="6"/>
-        <v>3.8017228464419759</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" si="7"/>
+        <f>F8-E8</f>
         <v>-8.13172284644196</v>
       </c>
-      <c r="I8" s="20">
-        <f t="shared" si="1"/>
+      <c r="H8" s="18">
+        <f t="shared" si="0"/>
+        <v>468.5</v>
+      </c>
+      <c r="I8" s="19">
+        <f>C8+F8</f>
         <v>464.17</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" si="2"/>
+        <f>I8-H8</f>
         <v>-4.3299999999999841</v>
       </c>
       <c r="K8" s="9">
-        <f t="shared" si="3"/>
+        <f>(I8-H8)/H8</f>
         <v>-9.24226254002131E-3</v>
       </c>
       <c r="M8" s="6">
-        <f t="shared" si="4"/>
+        <f>C8/I8</f>
         <v>0.51550078634982877</v>
       </c>
       <c r="N8" s="6">
-        <f t="shared" si="5"/>
+        <f>F8/I8</f>
         <v>0.48449921365017129</v>
       </c>
-      <c r="P8" s="22" t="s">
+      <c r="P8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="Q8" s="22" t="s">
+      <c r="Q8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="R8" s="22" t="s">
+      <c r="R8" s="12" t="s">
         <v>0</v>
       </c>
+      <c r="S8" s="12" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>44801</v>
       </c>
@@ -1164,51 +1223,66 @@
         <v>239.28</v>
       </c>
       <c r="C9" s="2">
-        <v>224.89</v>
-      </c>
-      <c r="D9" s="19">
-        <f t="shared" si="0"/>
-        <v>464.16999999999996</v>
-      </c>
-      <c r="E9" s="2">
         <f>4.25+18.45+91.66+3.92+6.5+99.33</f>
         <v>224.11</v>
+      </c>
+      <c r="D9" s="1">
+        <f>C9-B9</f>
+        <v>-15.169999999999987</v>
+      </c>
+      <c r="E9" s="2">
+        <v>224.89</v>
       </c>
       <c r="F9" s="2">
         <f>36.64+78.43+8.46+5.34+88.44+0.62</f>
         <v>217.93</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="6"/>
-        <v>-15.169999999999987</v>
-      </c>
-      <c r="H9" s="1">
-        <f t="shared" si="7"/>
+        <f>F9-E9</f>
         <v>-6.9599999999999795</v>
       </c>
-      <c r="I9" s="20">
-        <f t="shared" si="1"/>
+      <c r="H9" s="18">
+        <f t="shared" si="0"/>
+        <v>464.16999999999996</v>
+      </c>
+      <c r="I9" s="19">
+        <f>C9+F9</f>
         <v>442.04</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" si="2"/>
+        <f>I9-H9</f>
         <v>-22.129999999999939</v>
       </c>
       <c r="K9" s="9">
-        <f t="shared" si="3"/>
+        <f>(I9-H9)/H9</f>
         <v>-4.7676497834844865E-2</v>
       </c>
       <c r="M9" s="6">
-        <f t="shared" si="4"/>
+        <f>C9/I9</f>
         <v>0.50699031761831514</v>
       </c>
       <c r="N9" s="6">
-        <f t="shared" si="5"/>
+        <f>F9/I9</f>
         <v>0.49300968238168491</v>
       </c>
-      <c r="R9" s="10"/>
+      <c r="P9" s="3">
+        <f>SUM(D5:D16)</f>
+        <v>9.7484554626848592</v>
+      </c>
+      <c r="Q9" s="2">
+        <f>SUM(G5:G16)</f>
+        <v>-87.028455462684633</v>
+      </c>
+      <c r="R9" s="3">
+        <f>SUM(J5:J16)</f>
+        <v>-77.279999999999745</v>
+      </c>
+      <c r="S9" s="6">
+        <f>(I16-H5)/H5</f>
+        <v>-0.11334080268896797</v>
+      </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>44836</v>
       </c>
@@ -1217,51 +1291,51 @@
         <v>224.11000000000004</v>
       </c>
       <c r="C10" s="2">
+        <f>122.55+37.85+69.74</f>
+        <v>230.14</v>
+      </c>
+      <c r="D10" s="1">
+        <f>C10-B10</f>
+        <v>6.0299999999999443</v>
+      </c>
+      <c r="E10" s="2">
         <f>I9*N9</f>
         <v>217.93</v>
-      </c>
-      <c r="D10" s="19">
-        <f t="shared" si="0"/>
-        <v>442.04000000000008</v>
-      </c>
-      <c r="E10" s="2">
-        <f>122.55+37.85+69.74</f>
-        <v>230.14</v>
       </c>
       <c r="F10" s="2">
         <f>14.02+55.25+9.8+32.11+8.18+5.64+97.58</f>
         <v>222.57999999999998</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="6"/>
-        <v>6.0299999999999443</v>
-      </c>
-      <c r="H10" s="1">
-        <f t="shared" si="7"/>
+        <f>F10-E10</f>
         <v>4.6499999999999773</v>
       </c>
-      <c r="I10" s="20">
-        <f t="shared" si="1"/>
+      <c r="H10" s="18">
+        <f t="shared" si="0"/>
+        <v>442.04000000000008</v>
+      </c>
+      <c r="I10" s="19">
+        <f>C10+F10</f>
         <v>452.71999999999997</v>
       </c>
       <c r="J10" s="2">
-        <f t="shared" si="2"/>
+        <f>I10-H10</f>
         <v>10.679999999999893</v>
       </c>
       <c r="K10" s="9">
-        <f t="shared" si="3"/>
+        <f>(I10-H10)/H10</f>
         <v>2.4160709438059657E-2</v>
       </c>
       <c r="M10" s="6">
-        <f t="shared" si="4"/>
+        <f>C10/I10</f>
         <v>0.50834953171938502</v>
       </c>
       <c r="N10" s="6">
-        <f t="shared" si="5"/>
+        <f>F10/I10</f>
         <v>0.49165046828061493</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>44872</v>
       </c>
@@ -1270,51 +1344,52 @@
         <v>231.23999999999995</v>
       </c>
       <c r="C11" s="2">
+        <f>6.36+57.62+70.06+96.53</f>
+        <v>230.57</v>
+      </c>
+      <c r="D11" s="1">
+        <f>C11-B11</f>
+        <v>-0.66999999999995907</v>
+      </c>
+      <c r="E11" s="2">
         <f>I10*N10</f>
         <v>222.57999999999998</v>
-      </c>
-      <c r="D11" s="19">
-        <f t="shared" si="0"/>
-        <v>453.81999999999994</v>
-      </c>
-      <c r="E11" s="2">
-        <f>6.36+57.62+70.06+96.53</f>
-        <v>230.57</v>
       </c>
       <c r="F11" s="2">
         <f>14.09+86.68+25.23+8.26+12.67+62.69</f>
         <v>209.62</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="6"/>
-        <v>-0.66999999999995907</v>
-      </c>
-      <c r="H11" s="1">
-        <f t="shared" si="7"/>
+        <f>F11-E11</f>
         <v>-12.95999999999998</v>
       </c>
-      <c r="I11" s="20">
-        <f t="shared" si="1"/>
+      <c r="H11" s="18">
+        <f t="shared" si="0"/>
+        <v>453.81999999999994</v>
+      </c>
+      <c r="I11" s="19">
+        <f>C11+F11</f>
         <v>440.19</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" si="2"/>
+        <f>I11-H11</f>
         <v>-13.629999999999939</v>
       </c>
       <c r="K11" s="9">
-        <f t="shared" si="3"/>
+        <f>(I11-H11)/H11</f>
         <v>-3.0033934158917502E-2</v>
       </c>
       <c r="M11" s="6">
-        <f t="shared" si="4"/>
+        <f>C11/I11</f>
         <v>0.52379654240214446</v>
       </c>
       <c r="N11" s="6">
-        <f t="shared" si="5"/>
+        <f>F11/I11</f>
         <v>0.47620345759785548</v>
       </c>
+      <c r="P11" s="8"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>44905</v>
       </c>
@@ -1323,103 +1398,109 @@
         <v>231.01</v>
       </c>
       <c r="C12" s="2">
-        <v>209.62</v>
-      </c>
-      <c r="D12" s="19">
-        <f>B12+C12</f>
-        <v>440.63</v>
-      </c>
-      <c r="E12" s="2">
         <f>97.72+32.5+16.14+88.77</f>
         <v>235.13</v>
+      </c>
+      <c r="D12" s="1">
+        <f>C12-B12</f>
+        <v>4.1200000000000045</v>
+      </c>
+      <c r="E12" s="2">
+        <v>209.62</v>
       </c>
       <c r="F12" s="2">
         <f>57.74+30.08+107.62</f>
         <v>195.44</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="6"/>
-        <v>4.1200000000000045</v>
-      </c>
-      <c r="H12" s="1">
-        <f t="shared" si="7"/>
+        <f>F12-E12</f>
         <v>-14.180000000000007</v>
       </c>
-      <c r="I12" s="20">
-        <f t="shared" si="1"/>
+      <c r="H12" s="18">
+        <f>B12+E12</f>
+        <v>440.63</v>
+      </c>
+      <c r="I12" s="19">
+        <f>C12+F12</f>
         <v>430.57</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" si="2"/>
+        <f>I12-H12</f>
         <v>-10.060000000000002</v>
       </c>
       <c r="K12" s="9">
-        <f t="shared" si="3"/>
+        <f>(I12-H12)/H12</f>
         <v>-2.2830946599187531E-2</v>
       </c>
       <c r="M12" s="6">
-        <f t="shared" si="4"/>
+        <f>C12/I12</f>
         <v>0.54609006665582827</v>
       </c>
       <c r="N12" s="6">
-        <f t="shared" si="5"/>
+        <f>F12/I12</f>
         <v>0.45390993334417168</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>44941</v>
       </c>
       <c r="B13" s="2">
-        <f>D13*M12</f>
+        <f>H13*M12</f>
         <v>235.75800357665418</v>
       </c>
       <c r="C13" s="2">
-        <f>D13*N12</f>
-        <v>195.96199642334579</v>
-      </c>
-      <c r="D13" s="19">
-        <f>I12+1.15</f>
-        <v>431.71999999999997</v>
-      </c>
-      <c r="E13" s="2">
         <f>165.11+20.81+8.37+48.49</f>
         <v>242.78000000000003</v>
+      </c>
+      <c r="D13" s="1">
+        <f>C13-B13</f>
+        <v>7.0219964233458541</v>
+      </c>
+      <c r="E13" s="2">
+        <f>H13*N12</f>
+        <v>195.96199642334579</v>
       </c>
       <c r="F13" s="2">
         <f>17.32+72.65+32.11+11.97+3.39+24.43+17.43</f>
         <v>179.3</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="6"/>
-        <v>7.0219964233458541</v>
-      </c>
-      <c r="H13" s="1">
-        <f t="shared" si="7"/>
+        <f>F13-E13</f>
         <v>-16.661996423345784</v>
       </c>
-      <c r="I13" s="20">
-        <f t="shared" si="1"/>
+      <c r="H13" s="18">
+        <f>I12+1.15</f>
+        <v>431.71999999999997</v>
+      </c>
+      <c r="I13" s="19">
+        <f>C13+F13</f>
         <v>422.08000000000004</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" si="2"/>
+        <f>I13-H13</f>
         <v>-9.6399999999999295</v>
       </c>
       <c r="K13" s="9">
-        <f t="shared" si="3"/>
+        <f>(I13-H13)/H13</f>
         <v>-2.2329287501157997E-2</v>
       </c>
       <c r="M13" s="6">
-        <f t="shared" si="4"/>
+        <f>C13/I13</f>
         <v>0.57519901440485222</v>
       </c>
       <c r="N13" s="6">
-        <f t="shared" si="5"/>
+        <f>F13/I13</f>
         <v>0.42480098559514784</v>
       </c>
+      <c r="P13" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="28"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>44995</v>
       </c>
@@ -1428,151 +1509,179 @@
         <v>243.38395896512512</v>
       </c>
       <c r="C14" s="2">
+        <f>8.8+80.06+36.65+38.14+50.5+43.21+2.67</f>
+        <v>260.02999999999997</v>
+      </c>
+      <c r="D14" s="1">
+        <f>C14-B14</f>
+        <v>16.646041034874855</v>
+      </c>
+      <c r="E14" s="2">
         <f>423.13*N13</f>
         <v>179.74604103487491</v>
-      </c>
-      <c r="D14" s="19">
-        <f>B14+C14</f>
-        <v>423.13</v>
-      </c>
-      <c r="E14" s="2">
-        <f>8.8+80.06+36.65+38.14+50.5+43.21+2.67</f>
-        <v>260.02999999999997</v>
       </c>
       <c r="F14" s="2">
         <f>29.64+42.85+38.88+38.01+16.45</f>
         <v>165.82999999999998</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" ref="G14:G16" si="8">E14-B14</f>
-        <v>16.646041034874855</v>
-      </c>
-      <c r="H14" s="1">
-        <f>F14-C14</f>
+        <f>F14-E14</f>
         <v>-13.916041034874922</v>
       </c>
-      <c r="I14" s="20">
-        <f t="shared" si="1"/>
+      <c r="H14" s="18">
+        <f>B14+E14</f>
+        <v>423.13</v>
+      </c>
+      <c r="I14" s="19">
+        <f>C14+F14</f>
         <v>425.85999999999996</v>
       </c>
       <c r="J14" s="2">
-        <f t="shared" si="2"/>
+        <f>I14-H14</f>
         <v>2.7299999999999613</v>
       </c>
       <c r="K14" s="9">
-        <f t="shared" si="3"/>
+        <f>(I14-H14)/H14</f>
         <v>6.4519178503059616E-3</v>
       </c>
       <c r="M14" s="6">
-        <f t="shared" si="4"/>
+        <f>C14/I14</f>
         <v>0.61059972761001269</v>
       </c>
       <c r="N14" s="6">
-        <f t="shared" si="5"/>
+        <f>F14/I14</f>
         <v>0.38940027238998731</v>
       </c>
+      <c r="P14" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="S14" s="12" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>45038</v>
       </c>
       <c r="B15" s="2">
-        <f>D15*M14</f>
+        <f>H15*M14</f>
         <v>261.52596933264454</v>
       </c>
       <c r="C15" s="2">
-        <f>D15*N14</f>
-        <v>166.78403066735547</v>
-      </c>
-      <c r="D15" s="19">
-        <v>428.31</v>
-      </c>
-      <c r="E15" s="2">
         <f>28.35+95.08+25.65+51.45+38.76+25.63</f>
         <v>264.92</v>
+      </c>
+      <c r="D15" s="1">
+        <f>C15-B15</f>
+        <v>3.3940306673554801</v>
+      </c>
+      <c r="E15" s="2">
+        <f>H15*N14</f>
+        <v>166.78403066735547</v>
       </c>
       <c r="F15" s="2">
         <f>6.9+69.8+12.54+57.17+22.69</f>
         <v>169.10000000000002</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="8"/>
-        <v>3.3940306673554801</v>
-      </c>
-      <c r="H15" s="1">
-        <f>F15-C15</f>
+        <f>F15-E15</f>
         <v>2.3159693326445563</v>
       </c>
-      <c r="I15" s="20">
-        <f>E15+F15</f>
+      <c r="H15" s="18">
+        <v>428.31</v>
+      </c>
+      <c r="I15" s="19">
+        <f>C15+F15</f>
         <v>434.02000000000004</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="2"/>
+        <f>I15-H15</f>
         <v>5.7100000000000364</v>
       </c>
       <c r="K15" s="9">
-        <f>(I15-D15)/D15</f>
+        <f>(I15-H15)/H15</f>
         <v>1.3331465527305074E-2</v>
       </c>
       <c r="M15" s="6">
-        <f>E15/I15</f>
+        <f>C15/I15</f>
         <v>0.61038661812819683</v>
       </c>
       <c r="N15" s="6">
-        <f t="shared" si="5"/>
+        <f>F15/I15</f>
         <v>0.38961338187180317</v>
       </c>
+      <c r="P15" s="3">
+        <f>SUM(D17)</f>
+        <v>9.2799999999999727</v>
+      </c>
+      <c r="Q15" s="3">
+        <f>SUM(G17)</f>
+        <v>28.449999999999932</v>
+      </c>
+      <c r="R15" s="3">
+        <f>SUM(J17)</f>
+        <v>37.729999999999791</v>
+      </c>
+      <c r="S15" s="6">
+        <f>(I17-H17)/H17</f>
+        <v>2.6131704343971489E-2</v>
+      </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>45095</v>
       </c>
       <c r="B16" s="2">
-        <f>D16*M15</f>
+        <f>H16*M15</f>
         <v>265.9881765817243</v>
       </c>
       <c r="C16" s="2">
-        <f>D16-B16</f>
-        <v>169.78182341827568</v>
-      </c>
-      <c r="D16" s="19">
-        <v>435.77</v>
-      </c>
-      <c r="E16" s="2">
         <f>22.18+6.99+43.85+19.39+87.79+7.1+3.71+74.33+2.56+4.73</f>
         <v>272.63000000000005</v>
+      </c>
+      <c r="D16" s="1">
+        <f>C16-B16</f>
+        <v>6.6418234182757487</v>
+      </c>
+      <c r="E16" s="2">
+        <f>H16-B16</f>
+        <v>169.78182341827568</v>
       </c>
       <c r="F16" s="2">
         <f>11+20.64+46.04+38.15+54.71</f>
         <v>170.54000000000002</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="8"/>
-        <v>6.6418234182757487</v>
-      </c>
-      <c r="H16" s="1">
-        <f>F16-C16</f>
+        <f>F16-E16</f>
         <v>0.75817658172434221</v>
       </c>
-      <c r="I16" s="20">
-        <f>E16+F16</f>
+      <c r="H16" s="18">
+        <v>435.77</v>
+      </c>
+      <c r="I16" s="19">
+        <f>C16+F16</f>
         <v>443.17000000000007</v>
       </c>
       <c r="J16" s="2">
-        <f>I16-D16</f>
+        <f>I16-H16</f>
         <v>7.4000000000000909</v>
       </c>
       <c r="K16" s="9">
-        <f>(I16-D16)/D16</f>
+        <f>(I16-H16)/H16</f>
         <v>1.6981435160750145E-2</v>
       </c>
       <c r="M16" s="6">
-        <f>E16/I16</f>
+        <f>C16/I16</f>
         <v>0.61518153304600942</v>
       </c>
       <c r="N16" s="6">
-        <f t="shared" si="5"/>
+        <f>F16/I16</f>
         <v>0.38481846695399052</v>
       </c>
     </row>
@@ -1585,29 +1694,82 @@
         <v>773.3</v>
       </c>
       <c r="C17" s="2">
+        <f>135.07+92.83+137.84+10.15+406.51+0.18</f>
+        <v>782.57999999999993</v>
+      </c>
+      <c r="D17" s="1">
+        <f>C17-B17</f>
+        <v>9.2799999999999727</v>
+      </c>
+      <c r="E17" s="2">
         <f>F16+500</f>
         <v>670.54</v>
       </c>
-      <c r="D17" s="20">
-        <f>B17+C17</f>
+      <c r="F17" s="2">
+        <f>40.26+92+76.89+150.83+112.68+131.87+6.43+88.03</f>
+        <v>698.9899999999999</v>
+      </c>
+      <c r="G17" s="1">
+        <f>F17-E17</f>
+        <v>28.449999999999932</v>
+      </c>
+      <c r="H17" s="19">
+        <f>B17+E17</f>
         <v>1443.84</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
+      <c r="I17" s="19">
+        <f>C17+F17</f>
+        <v>1481.5699999999997</v>
+      </c>
+      <c r="J17" s="2">
+        <f>I17-H17</f>
+        <v>37.729999999999791</v>
+      </c>
+      <c r="K17" s="9">
+        <f>(I17-H17)/H17</f>
+        <v>2.6131704343971489E-2</v>
+      </c>
+      <c r="M17" s="6">
+        <f>C17/I17</f>
+        <v>0.52820993945611761</v>
+      </c>
+      <c r="N17" s="6">
+        <f>F17/I17</f>
+        <v>0.47179006054388251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
+        <v>45174</v>
+      </c>
+      <c r="B18" s="2">
+        <f>H18*M17</f>
+        <v>782.3634339248232</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2">
+        <f>H18*N17</f>
+        <v>698.796566075177</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="19">
+        <v>1481.16</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="P1:R1"/>
-    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="P13:S13"/>
   </mergeCells>
-  <conditionalFormatting sqref="G2:G16">
+  <conditionalFormatting sqref="D2:D17">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1619,7 +1781,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H16">
+  <conditionalFormatting sqref="G2:G17">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -1631,7 +1793,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J16">
+  <conditionalFormatting sqref="J2:J17">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -1643,7 +1805,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K16">
+  <conditionalFormatting sqref="K2:K17">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
